--- a/vamp/clan_info_all.xlsx
+++ b/vamp/clan_info_all.xlsx
@@ -15,495 +15,399 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>КЛАН ИСКЛЮЧЕННЫХ</t>
   </si>
   <si>
-    <t>Inquisitions death</t>
-  </si>
-  <si>
     <t>Immortals</t>
   </si>
   <si>
-    <t>NirvanA</t>
-  </si>
-  <si>
-    <t>Утраченный символ</t>
-  </si>
-  <si>
     <t>ScorpionS</t>
   </si>
   <si>
     <t>ClanLeader</t>
   </si>
   <si>
-    <t>Nightmare_</t>
-  </si>
-  <si>
     <t>ROTVELLER 82</t>
   </si>
   <si>
-    <t>BlackXS</t>
-  </si>
-  <si>
-    <t>_Хранители Истины_</t>
+    <t>Черный Граф</t>
+  </si>
+  <si>
+    <t>Alles Luge</t>
+  </si>
+  <si>
+    <t>MembersCount</t>
+  </si>
+  <si>
+    <t>_АНТИ_ЭГО_</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Wins</t>
+  </si>
+  <si>
+    <t>тьма</t>
+  </si>
+  <si>
+    <t>Officer</t>
+  </si>
+  <si>
+    <t>Дьяволицы</t>
+  </si>
+  <si>
+    <t>Last Exit</t>
+  </si>
+  <si>
+    <t>ClanDBID</t>
+  </si>
+  <si>
+    <t>We The First</t>
+  </si>
+  <si>
+    <t>Доминанта</t>
+  </si>
+  <si>
+    <t>Rang</t>
+  </si>
+  <si>
+    <t>Black Attraction</t>
+  </si>
+  <si>
+    <t>Ангел смерти</t>
+  </si>
+  <si>
+    <t>ClanPointsEarned</t>
+  </si>
+  <si>
+    <t>Наемники Крови</t>
+  </si>
+  <si>
+    <t>КРОВАВЫЙ РАССВЕТ</t>
+  </si>
+  <si>
+    <t>Арис</t>
+  </si>
+  <si>
+    <t>Decadence</t>
+  </si>
+  <si>
+    <t>DARKNESS KINGDOM</t>
+  </si>
+  <si>
+    <t>Nightmare</t>
+  </si>
+  <si>
+    <t>Фейри_Тейл</t>
+  </si>
+  <si>
+    <t>Bloodrayne</t>
+  </si>
+  <si>
+    <t>Вампиры</t>
+  </si>
+  <si>
+    <t>Alpha and Omega</t>
+  </si>
+  <si>
+    <t>ХрАнИтеЛи РаВнОвЕсИя</t>
+  </si>
+  <si>
+    <t>Хельхейм</t>
+  </si>
+  <si>
+    <t>ЛЕДЯНОЕ ДЫХАНИЕ</t>
+  </si>
+  <si>
+    <t>RainBow</t>
+  </si>
+  <si>
+    <t>0ман</t>
+  </si>
+  <si>
+    <t>Kurobane Renmei</t>
+  </si>
+  <si>
+    <t>Хранители Истины</t>
+  </si>
+  <si>
+    <t>NeedNewMembers</t>
+  </si>
+  <si>
+    <t>Enigma</t>
+  </si>
+  <si>
+    <t>TTL</t>
+  </si>
+  <si>
+    <t>malkavians</t>
+  </si>
+  <si>
+    <t>Letzter Ausweg</t>
+  </si>
+  <si>
+    <t>Camarilla</t>
+  </si>
+  <si>
+    <t>A_S</t>
+  </si>
+  <si>
+    <t>Цербер</t>
+  </si>
+  <si>
+    <t>HasAvatar</t>
+  </si>
+  <si>
+    <t>Two Worlds</t>
+  </si>
+  <si>
+    <t>Альянс</t>
+  </si>
+  <si>
+    <t>очкошники</t>
   </si>
   <si>
     <t>ДЖАВАННИ</t>
   </si>
   <si>
-    <t>Alles Luge</t>
-  </si>
-  <si>
-    <t>MembersCount</t>
-  </si>
-  <si>
-    <t>_АНТИ_ЭГО_</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Wins</t>
-  </si>
-  <si>
-    <t>Divine Shadows</t>
+    <t>BLACK BLOOD</t>
+  </si>
+  <si>
+    <t>Metamorph</t>
+  </si>
+  <si>
+    <t>La Dolce Vita</t>
+  </si>
+  <si>
+    <t>Born in the Dark</t>
+  </si>
+  <si>
+    <t>Saints Devils</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>_StarLight_</t>
+  </si>
+  <si>
+    <t>Демонические ангелы</t>
+  </si>
+  <si>
+    <t>Вестники Смерти</t>
+  </si>
+  <si>
+    <t>666blooddevil666</t>
+  </si>
+  <si>
+    <t>__ЖАЖДА КРОВИ__</t>
+  </si>
+  <si>
+    <t>Летучие мыши</t>
+  </si>
+  <si>
+    <t>Tzimisce</t>
+  </si>
+  <si>
+    <t>Fenris Brood</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>_НоЧнЫе_АнГеЛы_</t>
+  </si>
+  <si>
+    <t>Drak</t>
+  </si>
+  <si>
+    <t>Schwarz Herz</t>
+  </si>
+  <si>
+    <t>_After dark_</t>
+  </si>
+  <si>
+    <t>Blood Night</t>
+  </si>
+  <si>
+    <t>GRIM FANDANGO</t>
+  </si>
+  <si>
+    <t>Весна без сна</t>
+  </si>
+  <si>
+    <t>Мертвые Ангелы</t>
+  </si>
+  <si>
+    <t>МОГУЩЕСТВО НОЧИ</t>
+  </si>
+  <si>
+    <t>_Клан Чёрной Розы_</t>
+  </si>
+  <si>
+    <t>__VaveloN__</t>
+  </si>
+  <si>
+    <t>Vampires</t>
+  </si>
+  <si>
+    <t>Empire of VOLKODLAK</t>
+  </si>
+  <si>
+    <t>Ридики</t>
+  </si>
+  <si>
+    <t>Прирожденные убийцы</t>
+  </si>
+  <si>
+    <t>Братство Инфернов</t>
+  </si>
+  <si>
+    <t>Thor Brood</t>
+  </si>
+  <si>
+    <t>UNCONTROLLABLE</t>
+  </si>
+  <si>
+    <t>Lunar Empire</t>
+  </si>
+  <si>
+    <t>Шепот Ночи</t>
+  </si>
+  <si>
+    <t>WhiteVampires</t>
+  </si>
+  <si>
+    <t>Hahik</t>
+  </si>
+  <si>
+    <t>ДЗО ГРЕХА Хаос Инк</t>
+  </si>
+  <si>
+    <t>OLDSCOOL</t>
+  </si>
+  <si>
+    <t>Royal  Hell</t>
+  </si>
+  <si>
+    <t>Angello Stella</t>
+  </si>
+  <si>
+    <t>_АСКАРЫ_</t>
+  </si>
+  <si>
+    <t>13thLegion</t>
+  </si>
+  <si>
+    <t>RAGNAROG</t>
+  </si>
+  <si>
+    <t>Спарта</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Демоны Ночи</t>
+  </si>
+  <si>
+    <t>Hired assassin</t>
+  </si>
+  <si>
+    <t>_ASSASSINS_</t>
+  </si>
+  <si>
+    <t>sea devil 2</t>
+  </si>
+  <si>
+    <t>Lestats vampire clan</t>
+  </si>
+  <si>
+    <t>Черная Смерть</t>
+  </si>
+  <si>
+    <t>KABALLA</t>
+  </si>
+  <si>
+    <t>MALAVIKA</t>
+  </si>
+  <si>
+    <t>Нас Рать</t>
+  </si>
+  <si>
+    <t>TGK</t>
+  </si>
+  <si>
+    <t>HIM</t>
+  </si>
+  <si>
+    <t>MORITURI</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ГЛАДИАТОРЫ</t>
+  </si>
+  <si>
+    <t>ZENIT  SPB</t>
+  </si>
+  <si>
+    <t>Хамстер</t>
+  </si>
+  <si>
+    <t>Призрак</t>
+  </si>
+  <si>
+    <t>Kaleniy</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>серебряный туман</t>
+  </si>
+  <si>
+    <t>Cranberry</t>
+  </si>
+  <si>
+    <t>Кузня демонов</t>
+  </si>
+  <si>
+    <t>Наследие Каина</t>
+  </si>
+  <si>
+    <t>CreationDate</t>
+  </si>
+  <si>
+    <t>Лунная Соната</t>
+  </si>
+  <si>
+    <t>Black_Lotus</t>
+  </si>
+  <si>
+    <t>Тремер</t>
   </si>
   <si>
     <t>Tiamat Brood</t>
   </si>
   <si>
-    <t>Hibru</t>
-  </si>
-  <si>
-    <t>Officer</t>
-  </si>
-  <si>
-    <t>Дьяволицы</t>
-  </si>
-  <si>
-    <t>Last Exit</t>
-  </si>
-  <si>
-    <t>ClanDBID</t>
-  </si>
-  <si>
-    <t>We The First</t>
-  </si>
-  <si>
-    <t>Черный Граф</t>
-  </si>
-  <si>
-    <t>Rang</t>
-  </si>
-  <si>
-    <t>Black Attraction</t>
-  </si>
-  <si>
-    <t>Угрюмый Пингвин</t>
-  </si>
-  <si>
-    <t>ClanPointsEarned</t>
-  </si>
-  <si>
-    <t>Трайпос</t>
-  </si>
-  <si>
-    <t>Наемники Крови</t>
-  </si>
-  <si>
-    <t>Арис</t>
-  </si>
-  <si>
-    <t>Decadence</t>
-  </si>
-  <si>
-    <t>DarkLegion</t>
-  </si>
-  <si>
-    <t>Devil May Cry 3</t>
-  </si>
-  <si>
-    <t>_Blood hunters_</t>
-  </si>
-  <si>
-    <t>Nightmare</t>
-  </si>
-  <si>
-    <t>InfernoNotte Lamagra</t>
-  </si>
-  <si>
-    <t>Берсерки</t>
-  </si>
-  <si>
-    <t>Фейри_Тейл</t>
-  </si>
-  <si>
-    <t>Bloodrayne</t>
-  </si>
-  <si>
-    <t>Вампиры</t>
-  </si>
-  <si>
-    <t>Alpha and Omega</t>
-  </si>
-  <si>
-    <t>ХрАнИтеЛи РаВнОвЕсИя</t>
-  </si>
-  <si>
-    <t>Хельхейм</t>
-  </si>
-  <si>
-    <t>ЛЕДЯНОЕ ДЫХАНИЕ</t>
-  </si>
-  <si>
-    <t>RainBow</t>
-  </si>
-  <si>
-    <t>0ман</t>
-  </si>
-  <si>
-    <t>WoT</t>
+    <t>Орден монахов</t>
+  </si>
+  <si>
+    <t>Аствэ Ин Раг</t>
+  </si>
+  <si>
+    <t>Brain Defloration</t>
+  </si>
+  <si>
+    <t>ДП 50</t>
   </si>
   <si>
     <t>Ведьмы</t>
-  </si>
-  <si>
-    <t>Хранители Истины</t>
-  </si>
-  <si>
-    <t>Кресты и Черепа</t>
-  </si>
-  <si>
-    <t>ТАКЕШИКИ</t>
-  </si>
-  <si>
-    <t>NeedNewMembers</t>
-  </si>
-  <si>
-    <t>Enigma</t>
-  </si>
-  <si>
-    <t>TTL</t>
-  </si>
-  <si>
-    <t>Letzter Ausweg</t>
-  </si>
-  <si>
-    <t>Leviathan Brood</t>
-  </si>
-  <si>
-    <t>Garm Brood</t>
-  </si>
-  <si>
-    <t>A_S</t>
-  </si>
-  <si>
-    <t>Доминанта</t>
-  </si>
-  <si>
-    <t>Цербер</t>
-  </si>
-  <si>
-    <t>Dark Invasion</t>
-  </si>
-  <si>
-    <t>_UndisputeD_</t>
-  </si>
-  <si>
-    <t>HasAvatar</t>
-  </si>
-  <si>
-    <t>ZOMBIELAND</t>
-  </si>
-  <si>
-    <t>Hellsing</t>
-  </si>
-  <si>
-    <t>очкошники</t>
-  </si>
-  <si>
-    <t>_РыцарИ_ТьмЫ_</t>
-  </si>
-  <si>
-    <t>BLACK BLOOD</t>
-  </si>
-  <si>
-    <t>The Noble Immortals</t>
-  </si>
-  <si>
-    <t>Metamorph</t>
-  </si>
-  <si>
-    <t>ДП 50</t>
-  </si>
-  <si>
-    <t>Born in the Dark</t>
-  </si>
-  <si>
-    <t>Saints Devils</t>
-  </si>
-  <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>Демонические ангелы</t>
-  </si>
-  <si>
-    <t>Вестники Смерти</t>
-  </si>
-  <si>
-    <t>666blooddevil666</t>
-  </si>
-  <si>
-    <t>Параллель</t>
-  </si>
-  <si>
-    <t>__ЖАЖДА КРОВИ__</t>
-  </si>
-  <si>
-    <t>Летучие мыши</t>
-  </si>
-  <si>
-    <t>ASSASSANS</t>
-  </si>
-  <si>
-    <t>Tzimisce</t>
-  </si>
-  <si>
-    <t>Fenris Brood</t>
-  </si>
-  <si>
-    <t>Infinity</t>
-  </si>
-  <si>
-    <t>Resident Evil</t>
-  </si>
-  <si>
-    <t>Malkavian</t>
-  </si>
-  <si>
-    <t>Nigoutai Brood</t>
-  </si>
-  <si>
-    <t>Strazi smerti</t>
-  </si>
-  <si>
-    <t>Клан Мертвой Крови</t>
-  </si>
-  <si>
-    <t>_НоЧнЫе_АнГеЛы_</t>
-  </si>
-  <si>
-    <t>Drak</t>
-  </si>
-  <si>
-    <t>Schwarz Herz</t>
-  </si>
-  <si>
-    <t>_After dark_</t>
-  </si>
-  <si>
-    <t>Клан Вольтури</t>
-  </si>
-  <si>
-    <t>Старейшины</t>
-  </si>
-  <si>
-    <t>Blood Night</t>
-  </si>
-  <si>
-    <t>GRIM FANDANGO</t>
-  </si>
-  <si>
-    <t>Весна без сна</t>
-  </si>
-  <si>
-    <t>Мертвые Ангелы</t>
-  </si>
-  <si>
-    <t>WAS</t>
-  </si>
-  <si>
-    <t>МОГУЩЕСТВО НОЧИ</t>
-  </si>
-  <si>
-    <t>_Клан Чёрной Розы_</t>
-  </si>
-  <si>
-    <t>HELHEIM</t>
-  </si>
-  <si>
-    <t>Ридики</t>
-  </si>
-  <si>
-    <t>Empire of VOLKODLAK</t>
-  </si>
-  <si>
-    <t>Прирожденные убийцы</t>
-  </si>
-  <si>
-    <t>Surtur Brood</t>
-  </si>
-  <si>
-    <t>Братство Инфернов</t>
-  </si>
-  <si>
-    <t>Two Worlds</t>
-  </si>
-  <si>
-    <t>UNCONTROLLABLE</t>
-  </si>
-  <si>
-    <t>Lunar Empire</t>
-  </si>
-  <si>
-    <t>ОСНОВА</t>
-  </si>
-  <si>
-    <t>Шепот Ночи</t>
-  </si>
-  <si>
-    <t>WhiteVampires</t>
-  </si>
-  <si>
-    <t>Вольная Стая</t>
-  </si>
-  <si>
-    <t>Hahik</t>
-  </si>
-  <si>
-    <t>ДЗО ГРЕХА Хаос Инк</t>
-  </si>
-  <si>
-    <t>вася</t>
-  </si>
-  <si>
-    <t>тьма</t>
-  </si>
-  <si>
-    <t>OLDSCOOL</t>
-  </si>
-  <si>
-    <t>Royal  Hell</t>
-  </si>
-  <si>
-    <t>Angello Stella</t>
-  </si>
-  <si>
-    <t>_АСКАРЫ_</t>
-  </si>
-  <si>
-    <t>13thLegion</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Демоны Ночи</t>
-  </si>
-  <si>
-    <t>Hired assassin</t>
-  </si>
-  <si>
-    <t>_ASSASSINS_</t>
-  </si>
-  <si>
-    <t>sea devil 2</t>
-  </si>
-  <si>
-    <t>Lestats vampire clan</t>
-  </si>
-  <si>
-    <t>Черная Смерть</t>
-  </si>
-  <si>
-    <t>Нас Рать</t>
-  </si>
-  <si>
-    <t>TGK</t>
-  </si>
-  <si>
-    <t>HIM</t>
-  </si>
-  <si>
-    <t>CHERNIE  LUCIFERI</t>
-  </si>
-  <si>
-    <t>MORITURI</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>ГЛАДИАТОРЫ</t>
-  </si>
-  <si>
-    <t>ZENIT  SPB</t>
-  </si>
-  <si>
-    <t>Хамстер</t>
-  </si>
-  <si>
-    <t>Призрак</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>серебряный туман</t>
-  </si>
-  <si>
-    <t>Cranberry</t>
-  </si>
-  <si>
-    <t>Кузня демонов</t>
-  </si>
-  <si>
-    <t>Наследие Каина</t>
-  </si>
-  <si>
-    <t>Grendel Brood</t>
-  </si>
-  <si>
-    <t>Addams Family</t>
-  </si>
-  <si>
-    <t>sea deavil</t>
-  </si>
-  <si>
-    <t>CreationDate</t>
-  </si>
-  <si>
-    <t>Лунная Соната</t>
-  </si>
-  <si>
-    <t>__VaveloN__</t>
-  </si>
-  <si>
-    <t>Black_Lotus</t>
-  </si>
-  <si>
-    <t>Тремер</t>
-  </si>
-  <si>
-    <t>Crulor Brood</t>
-  </si>
-  <si>
-    <t>Орден монахов</t>
-  </si>
-  <si>
-    <t>Аствэ Ин Раг</t>
-  </si>
-  <si>
-    <t>La Dolce Vita</t>
-  </si>
-  <si>
-    <t>Gold Dragon</t>
-  </si>
-  <si>
-    <t>Kurobane Renmei</t>
   </si>
   <si>
     <t>Looses</t>
@@ -842,7 +746,7 @@
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
-  <dimension ref="A1:O151"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1" activeCell="A1"/>
@@ -850,68 +754,68 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col max="1" collapsed="0" width="9.10" min="1"/>
-    <col max="3" collapsed="0" width="9.10" min="3"/>
-    <col max="2" collapsed="0" width="9.10" min="2"/>
-    <col max="5" collapsed="0" width="9.10" min="5"/>
-    <col max="4" collapsed="0" width="9.10" min="4"/>
-    <col max="7" collapsed="0" width="9.10" min="7"/>
-    <col max="6" collapsed="0" width="9.10" min="6"/>
-    <col max="9" collapsed="0" width="9.10" min="9"/>
-    <col max="8" collapsed="0" width="9.10" min="8"/>
-    <col max="11" collapsed="0" width="9.10" min="11"/>
-    <col max="10" collapsed="0" width="9.10" min="10"/>
-    <col max="13" collapsed="0" width="9.10" min="13"/>
-    <col max="12" collapsed="0" width="9.10" min="12"/>
-    <col max="15" collapsed="0" width="9.10" min="15"/>
-    <col max="14" collapsed="0" width="9.10" min="14"/>
+    <col max="1" collapsed="0" customWidth="true" width="9.1" min="1"/>
+    <col max="3" collapsed="0" customWidth="true" width="9.1" min="3"/>
+    <col max="2" collapsed="0" customWidth="true" width="9.1" min="2"/>
+    <col max="5" collapsed="0" customWidth="true" width="9.1" min="5"/>
+    <col max="4" collapsed="0" customWidth="true" width="9.1" min="4"/>
+    <col max="7" collapsed="0" customWidth="true" width="9.1" min="7"/>
+    <col max="6" collapsed="0" customWidth="true" width="9.1" min="6"/>
+    <col max="9" collapsed="0" customWidth="true" width="9.1" min="9"/>
+    <col max="8" collapsed="0" customWidth="true" width="9.1" min="8"/>
+    <col max="11" collapsed="0" customWidth="true" width="9.1" min="11"/>
+    <col max="10" collapsed="0" customWidth="true" width="9.1" min="10"/>
+    <col max="13" collapsed="0" customWidth="true" width="9.1" min="13"/>
+    <col max="12" collapsed="0" customWidth="true" width="9.1" min="12"/>
+    <col max="15" collapsed="0" customWidth="true" width="9.1" min="15"/>
+    <col max="14" collapsed="0" customWidth="true" width="9.1" min="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
       <c r="M1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N1" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="O1" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -922,7 +826,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -931,7 +835,7 @@
         <v>131</v>
       </c>
       <c r="F2" t="n">
-        <v>29665</v>
+        <v>43240</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -952,7 +856,7 @@
         <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>40743615</v>
+        <v>54302663</v>
       </c>
       <c r="O2" t="n">
         <v>5</v>
@@ -960,550 +864,550 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="n">
-        <v>4680</v>
+        <v>5197</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>125</v>
+        <v>915</v>
       </c>
       <c r="F3" t="n">
-        <v>1270770</v>
+        <v>1437306</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>128537</v>
+        <v>1080741</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>2099116</v>
+        <v>1289915</v>
       </c>
       <c r="L3" t="n">
-        <v>888882</v>
+        <v>1349474</v>
       </c>
       <c r="M3" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="N3" t="n">
-        <v>89307600</v>
+        <v>85148929</v>
       </c>
       <c r="O3" t="n">
-        <v>102</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="n">
-        <v>4678</v>
+        <v>5138</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>58</v>
+        <v>557</v>
       </c>
       <c r="F4" t="n">
-        <v>73137</v>
+        <v>370868</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-1</v>
+        <v>1833643</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>2259257</v>
+        <v>946931</v>
       </c>
       <c r="L4" t="n">
-        <v>2257416</v>
+        <v>2244278</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N4" t="n">
-        <v>26834641</v>
+        <v>43158036</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="n">
-        <v>4646</v>
+        <v>4946</v>
       </c>
       <c r="B5" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>937</v>
+        <v>1109</v>
       </c>
       <c r="F5" t="n">
-        <v>4202358</v>
+        <v>1398636</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>993340</v>
+        <v>1391068</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>2201042</v>
+        <v>1150998</v>
       </c>
       <c r="L5" t="n">
-        <v>878291</v>
+        <v>1220531</v>
       </c>
       <c r="M5" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N5" t="n">
-        <v>89561971</v>
+        <v>90258356</v>
       </c>
       <c r="O5" t="n">
-        <v>299</v>
+        <v>665</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="n">
-        <v>4626</v>
+        <v>4763</v>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>752</v>
+        <v>592</v>
       </c>
       <c r="F6" t="n">
-        <v>1281751</v>
+        <v>729579</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1080741</v>
+        <v>0</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1289915</v>
+        <v>1327102</v>
       </c>
       <c r="L6" t="n">
-        <v>1349474</v>
+        <v>2179401</v>
       </c>
       <c r="M6" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N6" t="n">
-        <v>71589881</v>
+        <v>54484923</v>
       </c>
       <c r="O6" t="n">
-        <v>418</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="n">
-        <v>4568</v>
+        <v>4746</v>
       </c>
       <c r="B7" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>812</v>
+        <v>1399</v>
       </c>
       <c r="F7" t="n">
-        <v>2815446</v>
+        <v>692874</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>348561</v>
+        <v>1898623</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1997840</v>
+        <v>292190</v>
       </c>
       <c r="L7" t="n">
-        <v>876211</v>
+        <v>2181920</v>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="N7" t="n">
-        <v>89604858</v>
+        <v>54044263</v>
       </c>
       <c r="O7" t="n">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="n">
-        <v>4548</v>
+        <v>4678</v>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>293</v>
+        <v>58</v>
       </c>
       <c r="F8" t="n">
-        <v>93383</v>
+        <v>109900</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>946931</v>
+        <v>0</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1898623</v>
+        <v>2345950</v>
       </c>
       <c r="L8" t="n">
-        <v>2304754</v>
+        <v>2257416</v>
       </c>
       <c r="M8" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>14428136</v>
+        <v>40393689</v>
       </c>
       <c r="O8" t="n">
-        <v>75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="n">
-        <v>4492</v>
+        <v>4564</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>38</v>
+        <v>474</v>
       </c>
       <c r="F9" t="n">
-        <v>20244</v>
+        <v>633429</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1550022</v>
+        <v>2135375</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>2112489</v>
+        <v>2209386</v>
       </c>
       <c r="L9" t="n">
-        <v>2334032</v>
+        <v>1163102</v>
       </c>
       <c r="M9" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N9" t="n">
-        <v>4964078</v>
+        <v>92079143</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="n">
-        <v>4448</v>
+        <v>4561</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>667</v>
+        <v>1110</v>
       </c>
       <c r="F10" t="n">
-        <v>1022443</v>
+        <v>2548941</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>952963</v>
+        <v>366351</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>340164</v>
+        <v>213920</v>
       </c>
       <c r="L10" t="n">
-        <v>1525248</v>
+        <v>874183</v>
       </c>
       <c r="M10" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="N10" t="n">
-        <v>65225140</v>
+        <v>103233442</v>
       </c>
       <c r="O10" t="n">
-        <v>219</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="n">
-        <v>4435</v>
+        <v>4518</v>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>894</v>
+        <v>1413</v>
       </c>
       <c r="F11" t="n">
-        <v>1181116</v>
+        <v>2535463</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2059631</v>
+        <v>1824790</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>2188189</v>
+        <v>986741</v>
       </c>
       <c r="L11" t="n">
-        <v>1220531</v>
+        <v>1175663</v>
       </c>
       <c r="M11" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>76699308</v>
+        <v>91585826</v>
       </c>
       <c r="O11" t="n">
-        <v>563</v>
+        <v>633</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="n">
-        <v>4407</v>
+        <v>4488</v>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="F12" t="n">
-        <v>157381</v>
+        <v>47408</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>817262</v>
+        <v>2094824</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>342737</v>
+        <v>2260748</v>
       </c>
       <c r="L12" t="n">
-        <v>2251470</v>
+        <v>2333933</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>28139682</v>
+        <v>18546675</v>
       </c>
       <c r="O12" t="n">
-        <v>137</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="n">
-        <v>4405</v>
+        <v>4453</v>
       </c>
       <c r="B13" t="n">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>982</v>
+        <v>829</v>
       </c>
       <c r="F13" t="n">
-        <v>2418760</v>
+        <v>1183380</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>366351</v>
+        <v>952963</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>213920</v>
+        <v>635898</v>
       </c>
       <c r="L13" t="n">
-        <v>874183</v>
+        <v>1525248</v>
       </c>
       <c r="M13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N13" t="n">
-        <v>89674394</v>
+        <v>78784188</v>
       </c>
       <c r="O13" t="n">
-        <v>259</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="n">
-        <v>4400</v>
+        <v>4302</v>
       </c>
       <c r="B14" t="n">
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D14" t="n">
         <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F14" t="n">
-        <v>55870</v>
+        <v>1377743</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>550683</v>
+        <v>128537</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1391068</v>
+        <v>2099116</v>
       </c>
       <c r="L14" t="n">
-        <v>2331404</v>
+        <v>888882</v>
       </c>
       <c r="M14" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>5780454</v>
+        <v>102866648</v>
       </c>
       <c r="O14" t="n">
-        <v>14</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="n">
-        <v>4369</v>
+        <v>4279</v>
       </c>
       <c r="B15" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>815</v>
+        <v>1001</v>
       </c>
       <c r="F15" t="n">
-        <v>2526752</v>
+        <v>2796777</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1521,737 +1425,737 @@
         <v>882812</v>
       </c>
       <c r="M15" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>89420132</v>
+        <v>102979180</v>
       </c>
       <c r="O15" t="n">
-        <v>338</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="n">
-        <v>4367</v>
+        <v>4253</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>896</v>
+        <v>696</v>
       </c>
       <c r="F16" t="n">
-        <v>2447447</v>
+        <v>737560</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1079295</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1127436</v>
+        <v>324616</v>
       </c>
       <c r="L16" t="n">
-        <v>879702</v>
+        <v>878569</v>
       </c>
       <c r="M16" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="N16" t="n">
-        <v>89501273</v>
+        <v>103114177</v>
       </c>
       <c r="O16" t="n">
-        <v>447</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="n">
-        <v>4320</v>
+        <v>4180</v>
       </c>
       <c r="B17" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>381</v>
+        <v>1912</v>
       </c>
       <c r="F17" t="n">
-        <v>537551</v>
+        <v>654122</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2056453</v>
+        <v>1885923</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>2209386</v>
+        <v>1395783</v>
       </c>
       <c r="L17" t="n">
-        <v>1163102</v>
+        <v>1471325</v>
       </c>
       <c r="M17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N17" t="n">
-        <v>78520095</v>
+        <v>80398895</v>
       </c>
       <c r="O17" t="n">
-        <v>254</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="n">
-        <v>4273</v>
+        <v>4179</v>
       </c>
       <c r="B18" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D18" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>1145</v>
+        <v>77</v>
       </c>
       <c r="F18" t="n">
-        <v>2236682</v>
+        <v>65271</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>145167</v>
+        <v>2239163</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>986741</v>
+        <v>2112489</v>
       </c>
       <c r="L18" t="n">
-        <v>1175663</v>
+        <v>2334032</v>
       </c>
       <c r="M18" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="N18" t="n">
-        <v>78026778</v>
+        <v>18523126</v>
       </c>
       <c r="O18" t="n">
-        <v>505</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="n">
-        <v>4251</v>
+        <v>4166</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>40</v>
+        <v>423</v>
       </c>
       <c r="F19" t="n">
-        <v>5630</v>
+        <v>3093309</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>348561</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>2260748</v>
+        <v>2152767</v>
       </c>
       <c r="L19" t="n">
-        <v>2333933</v>
+        <v>875301</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N19" t="n">
-        <v>4987627</v>
+        <v>103213913</v>
       </c>
       <c r="O19" t="n">
-        <v>8</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="n">
-        <v>4249</v>
+        <v>4141</v>
       </c>
       <c r="B20" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>414</v>
+        <v>976</v>
       </c>
       <c r="F20" t="n">
-        <v>583478</v>
+        <v>2581766</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1327102</v>
+        <v>1172606</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>2267292</v>
+        <v>1127436</v>
       </c>
       <c r="L20" t="n">
-        <v>2179401</v>
+        <v>879702</v>
       </c>
       <c r="M20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>40925875</v>
+        <v>103060321</v>
       </c>
       <c r="O20" t="n">
-        <v>184</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="n">
-        <v>4200</v>
+        <v>4085</v>
       </c>
       <c r="B21" t="n">
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D21" t="n">
         <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>1053</v>
+        <v>379</v>
       </c>
       <c r="F21" t="n">
-        <v>525576</v>
+        <v>465599</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>583000</v>
+        <v>1352486</v>
       </c>
       <c r="J21" t="b">
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>657119</v>
+        <v>444353</v>
       </c>
       <c r="L21" t="n">
-        <v>1471325</v>
+        <v>2305033</v>
       </c>
       <c r="M21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N21" t="n">
-        <v>66839847</v>
+        <v>27888900</v>
       </c>
       <c r="O21" t="n">
-        <v>829</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="n">
-        <v>4137</v>
+        <v>4062</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="F22" t="n">
-        <v>170493</v>
+        <v>214670</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2260434</v>
+        <v>59210</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>2201371</v>
+        <v>146812</v>
       </c>
       <c r="L22" t="n">
-        <v>2251763</v>
+        <v>1623894</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N22" t="n">
-        <v>28063401</v>
+        <v>76772828</v>
       </c>
       <c r="O22" t="n">
-        <v>152</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="n">
-        <v>4129</v>
+        <v>4058</v>
       </c>
       <c r="B23" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="F23" t="n">
-        <v>284817</v>
+        <v>225979</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1352486</v>
+        <v>0</v>
       </c>
       <c r="J23" t="b">
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>1051205</v>
+        <v>290069</v>
       </c>
       <c r="L23" t="n">
-        <v>2305033</v>
+        <v>2251470</v>
       </c>
       <c r="M23" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N23" t="n">
-        <v>14329852</v>
+        <v>41698730</v>
       </c>
       <c r="O23" t="n">
-        <v>139</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="n">
-        <v>4087</v>
+        <v>3975</v>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="F24" t="n">
-        <v>487627</v>
+        <v>245042</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1128491</v>
+        <v>2212162</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>946628</v>
+        <v>2266078</v>
       </c>
       <c r="L24" t="n">
-        <v>1332289</v>
+        <v>2258439</v>
       </c>
       <c r="M24" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N24" t="n">
-        <v>72359036</v>
+        <v>39797478</v>
       </c>
       <c r="O24" t="n">
-        <v>274</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="n">
-        <v>3962</v>
+        <v>3884</v>
       </c>
       <c r="B25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>349</v>
+        <v>797</v>
       </c>
       <c r="F25" t="n">
-        <v>248321</v>
+        <v>521848</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>2267472</v>
+        <v>776779</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>2254474</v>
+        <v>1388385</v>
       </c>
       <c r="L25" t="n">
-        <v>2244278</v>
+        <v>897885</v>
       </c>
       <c r="M25" t="n">
         <v>8</v>
       </c>
       <c r="N25" t="n">
-        <v>29598988</v>
+        <v>102542056</v>
       </c>
       <c r="O25" t="n">
-        <v>159</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="n">
-        <v>3919</v>
+        <v>3818</v>
       </c>
       <c r="B26" t="n">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="F26" t="n">
-        <v>120137</v>
+        <v>125921</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>257971</v>
+        <v>1336838</v>
       </c>
       <c r="J26" t="b">
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>319817</v>
+        <v>1305079</v>
       </c>
       <c r="L26" t="n">
-        <v>2242561</v>
+        <v>2313129</v>
       </c>
       <c r="M26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>30015704</v>
+        <v>25558255</v>
       </c>
       <c r="O26" t="n">
-        <v>252</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="n">
-        <v>3892</v>
+        <v>3778</v>
       </c>
       <c r="B27" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>666</v>
+        <v>220</v>
       </c>
       <c r="F27" t="n">
-        <v>3383321</v>
+        <v>170078</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>257971</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>290069</v>
+        <v>319817</v>
       </c>
       <c r="L27" t="n">
-        <v>889390</v>
+        <v>2242561</v>
       </c>
       <c r="M27" t="n">
         <v>6</v>
       </c>
       <c r="N27" t="n">
-        <v>89297978</v>
+        <v>43574752</v>
       </c>
       <c r="O27" t="n">
-        <v>399</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="n">
-        <v>3830</v>
+        <v>3770</v>
       </c>
       <c r="B28" t="n">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>181</v>
+        <v>686</v>
       </c>
       <c r="F28" t="n">
-        <v>2303623</v>
+        <v>742388</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>951763</v>
+        <v>2065590</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>951719</v>
+        <v>1988071</v>
       </c>
       <c r="L28" t="n">
-        <v>878181</v>
+        <v>874189</v>
       </c>
       <c r="M28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N28" t="n">
-        <v>89564317</v>
+        <v>103233162</v>
       </c>
       <c r="O28" t="n">
-        <v>158</v>
+        <v>421</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="n">
-        <v>3822</v>
+        <v>3770</v>
       </c>
       <c r="B29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>233</v>
+        <v>802</v>
       </c>
       <c r="F29" t="n">
-        <v>384082</v>
+        <v>188794</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1411779</v>
+        <v>943125</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>1337925</v>
+        <v>941644</v>
       </c>
       <c r="L29" t="n">
-        <v>1524721</v>
+        <v>1466624</v>
       </c>
       <c r="M29" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N29" t="n">
-        <v>65283069</v>
+        <v>80529185</v>
       </c>
       <c r="O29" t="n">
-        <v>248</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="n">
-        <v>3817</v>
+        <v>3760</v>
       </c>
       <c r="B30" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>678</v>
+        <v>92</v>
       </c>
       <c r="F30" t="n">
-        <v>432859</v>
+        <v>104384</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>141091</v>
+        <v>0</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>1388385</v>
+        <v>2242388</v>
       </c>
       <c r="L30" t="n">
-        <v>897885</v>
+        <v>2247840</v>
       </c>
       <c r="M30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N30" t="n">
-        <v>88983008</v>
+        <v>42434266</v>
       </c>
       <c r="O30" t="n">
-        <v>256</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="n">
-        <v>3797</v>
+        <v>3753</v>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F31" t="n">
-        <v>89659</v>
+        <v>381186</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2242006</v>
+        <v>2092694</v>
       </c>
       <c r="J31" t="b">
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>2240840</v>
+        <v>380077</v>
       </c>
       <c r="L31" t="n">
-        <v>2247840</v>
+        <v>888961</v>
       </c>
       <c r="M31" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N31" t="n">
-        <v>28875218</v>
+        <v>102865296</v>
       </c>
       <c r="O31" t="n">
-        <v>87</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="n">
-        <v>3787</v>
+        <v>3747</v>
       </c>
       <c r="B32" t="n">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D32" t="n">
         <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F32" t="n">
-        <v>42500</v>
+        <v>155239</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -2269,737 +2173,737 @@
         <v>2316926</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>10798440</v>
+        <v>24357488</v>
       </c>
       <c r="O32" t="n">
-        <v>83</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="n">
-        <v>3769</v>
+        <v>3715</v>
       </c>
       <c r="B33" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>402</v>
+        <v>572</v>
       </c>
       <c r="F33" t="n">
-        <v>3034597</v>
+        <v>1711059</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>99013</v>
+        <v>507932</v>
       </c>
       <c r="J33" t="b">
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>664885</v>
+        <v>442133</v>
       </c>
       <c r="L33" t="n">
-        <v>875301</v>
+        <v>882098</v>
       </c>
       <c r="M33" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N33" t="n">
-        <v>89654865</v>
+        <v>103020991</v>
       </c>
       <c r="O33" t="n">
-        <v>452</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="n">
-        <v>3767</v>
+        <v>3703</v>
       </c>
       <c r="B34" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="F34" t="n">
-        <v>163639</v>
+        <v>403592</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>2237184</v>
+        <v>0</v>
       </c>
       <c r="J34" t="b">
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>2266078</v>
+        <v>342779</v>
       </c>
       <c r="L34" t="n">
-        <v>2258439</v>
+        <v>1524721</v>
       </c>
       <c r="M34" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N34" t="n">
-        <v>26238430</v>
+        <v>78842117</v>
       </c>
       <c r="O34" t="n">
-        <v>99</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" t="n">
-        <v>3732</v>
+        <v>3691</v>
       </c>
       <c r="B35" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>575</v>
+        <v>449</v>
       </c>
       <c r="F35" t="n">
-        <v>307351</v>
+        <v>975944</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1419185</v>
+        <v>22838</v>
       </c>
       <c r="J35" t="b">
         <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>127680</v>
+        <v>4554</v>
       </c>
       <c r="L35" t="n">
-        <v>974437</v>
+        <v>878783</v>
       </c>
       <c r="M35" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N35" t="n">
-        <v>85295918</v>
+        <v>103089281</v>
       </c>
       <c r="O35" t="n">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="n">
-        <v>3722</v>
+        <v>3678</v>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E36" t="n">
-        <v>68</v>
+        <v>2440</v>
       </c>
       <c r="F36" t="n">
-        <v>367342</v>
+        <v>804271</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>166254</v>
+        <v>467048</v>
       </c>
       <c r="J36" t="b">
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>12041</v>
+        <v>209095</v>
       </c>
       <c r="L36" t="n">
-        <v>888961</v>
+        <v>1174679</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N36" t="n">
-        <v>89306248</v>
+        <v>91642413</v>
       </c>
       <c r="O36" t="n">
-        <v>39</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="n">
-        <v>3715</v>
+        <v>3662</v>
       </c>
       <c r="B37" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>478</v>
+        <v>110</v>
       </c>
       <c r="F37" t="n">
-        <v>147564</v>
+        <v>117297</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2135303</v>
+        <v>-1</v>
       </c>
       <c r="J37" t="b">
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>2134805</v>
+        <v>2040165</v>
       </c>
       <c r="L37" t="n">
-        <v>2183077</v>
+        <v>2134299</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N37" t="n">
-        <v>40323000</v>
+        <v>60189204</v>
       </c>
       <c r="O37" t="n">
-        <v>527</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="n">
-        <v>3710</v>
+        <v>3659</v>
       </c>
       <c r="B38" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>2333</v>
+        <v>457</v>
       </c>
       <c r="F38" t="n">
-        <v>727832</v>
+        <v>410399</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2158864</v>
+        <v>943858</v>
       </c>
       <c r="J38" t="b">
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>209095</v>
+        <v>942519</v>
       </c>
       <c r="L38" t="n">
-        <v>1174679</v>
+        <v>1005140</v>
       </c>
       <c r="M38" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N38" t="n">
-        <v>78083365</v>
+        <v>96184264</v>
       </c>
       <c r="O38" t="n">
-        <v>388</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="n">
-        <v>3701</v>
+        <v>3607</v>
       </c>
       <c r="B39" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>1023</v>
+        <v>488</v>
       </c>
       <c r="F39" t="n">
-        <v>644660</v>
+        <v>320762</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>3156</v>
+        <v>1473438</v>
       </c>
       <c r="J39" t="b">
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>911764</v>
+        <v>1282456</v>
       </c>
       <c r="L39" t="n">
-        <v>2181920</v>
+        <v>1471867</v>
       </c>
       <c r="M39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N39" t="n">
-        <v>40485215</v>
+        <v>80352460</v>
       </c>
       <c r="O39" t="n">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" t="n">
-        <v>3674</v>
+        <v>3600</v>
       </c>
       <c r="B40" t="n">
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="D40" t="n">
         <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>585</v>
+        <v>533</v>
       </c>
       <c r="F40" t="n">
-        <v>662179</v>
+        <v>181358</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>464556</v>
+        <v>2301182</v>
       </c>
       <c r="J40" t="b">
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>1988071</v>
+        <v>1376994</v>
       </c>
       <c r="L40" t="n">
-        <v>874189</v>
+        <v>2304754</v>
       </c>
       <c r="M40" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N40" t="n">
-        <v>89674114</v>
+        <v>27987184</v>
       </c>
       <c r="O40" t="n">
-        <v>326</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="n">
-        <v>3671</v>
+        <v>3588</v>
       </c>
       <c r="B41" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="F41" t="n">
-        <v>48691</v>
+        <v>2385942</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>951763</v>
       </c>
       <c r="J41" t="b">
         <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>2245029</v>
+        <v>951719</v>
       </c>
       <c r="L41" t="n">
-        <v>2275320</v>
+        <v>878181</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N41" t="n">
-        <v>22630147</v>
+        <v>103123365</v>
       </c>
       <c r="O41" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" t="n">
-        <v>3665</v>
+        <v>3580</v>
       </c>
       <c r="B42" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="D42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>554</v>
+        <v>394</v>
       </c>
       <c r="F42" t="n">
-        <v>658070</v>
+        <v>468767</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1079295</v>
+        <v>114726</v>
       </c>
       <c r="J42" t="b">
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>324616</v>
+        <v>14320</v>
       </c>
       <c r="L42" t="n">
-        <v>878569</v>
+        <v>874122</v>
       </c>
       <c r="M42" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N42" t="n">
-        <v>89555129</v>
+        <v>103234713</v>
       </c>
       <c r="O42" t="n">
-        <v>273</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" t="n">
-        <v>3662</v>
+        <v>3580</v>
       </c>
       <c r="B43" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="F43" t="n">
-        <v>104256</v>
+        <v>107802</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-1</v>
+        <v>1906563</v>
       </c>
       <c r="J43" t="b">
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>2040165</v>
+        <v>2153455</v>
       </c>
       <c r="L43" t="n">
-        <v>2134299</v>
+        <v>2171732</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N43" t="n">
-        <v>46630156</v>
+        <v>55860023</v>
       </c>
       <c r="O43" t="n">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" t="n">
-        <v>3655</v>
+        <v>3543</v>
       </c>
       <c r="B44" t="n">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="D44" t="n">
         <v>3</v>
       </c>
       <c r="E44" t="n">
-        <v>377</v>
+        <v>165</v>
       </c>
       <c r="F44" t="n">
-        <v>352956</v>
+        <v>236848</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>943858</v>
+        <v>2068785</v>
       </c>
       <c r="J44" t="b">
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>942519</v>
+        <v>1690547</v>
       </c>
       <c r="L44" t="n">
-        <v>1005140</v>
+        <v>2196555</v>
       </c>
       <c r="M44" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N44" t="n">
-        <v>82625216</v>
+        <v>51581501</v>
       </c>
       <c r="O44" t="n">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" t="n">
-        <v>3649</v>
+        <v>3541</v>
       </c>
       <c r="B45" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>208</v>
+        <v>632</v>
       </c>
       <c r="F45" t="n">
-        <v>168826</v>
+        <v>325918</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>648454</v>
+        <v>127680</v>
       </c>
       <c r="J45" t="b">
         <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>439279</v>
+        <v>340464</v>
       </c>
       <c r="L45" t="n">
-        <v>1540559</v>
+        <v>974437</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N45" t="n">
-        <v>64331778</v>
+        <v>98854966</v>
       </c>
       <c r="O45" t="n">
-        <v>273</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="n">
-        <v>3641</v>
+        <v>3541</v>
       </c>
       <c r="B46" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>442</v>
+        <v>113</v>
       </c>
       <c r="F46" t="n">
-        <v>879126</v>
+        <v>339906</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>22838</v>
+        <v>244005</v>
       </c>
       <c r="J46" t="b">
         <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>4554</v>
+        <v>744232</v>
       </c>
       <c r="L46" t="n">
-        <v>878783</v>
+        <v>955874</v>
       </c>
       <c r="M46" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N46" t="n">
-        <v>89530233</v>
+        <v>100379340</v>
       </c>
       <c r="O46" t="n">
-        <v>236</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" t="n">
-        <v>3637</v>
+        <v>3540</v>
       </c>
       <c r="B47" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="F47" t="n">
-        <v>187422</v>
+        <v>131081</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2344135</v>
       </c>
       <c r="J47" t="b">
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>503949</v>
+        <v>2245119</v>
       </c>
       <c r="L47" t="n">
-        <v>1334141</v>
+        <v>1806633</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="n">
-        <v>72232843</v>
+        <v>72925769</v>
       </c>
       <c r="O47" t="n">
-        <v>104</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" t="n">
-        <v>3623</v>
+        <v>3531</v>
       </c>
       <c r="B48" t="n">
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="D48" t="n">
         <v>3</v>
       </c>
       <c r="E48" t="n">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="F48" t="n">
-        <v>325042</v>
+        <v>377538</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>455808</v>
+        <v>963710</v>
       </c>
       <c r="J48" t="b">
         <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>244005</v>
+        <v>1349405</v>
       </c>
       <c r="L48" t="n">
-        <v>955874</v>
+        <v>1647665</v>
       </c>
       <c r="M48" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N48" t="n">
-        <v>86820292</v>
+        <v>76345559</v>
       </c>
       <c r="O48" t="n">
-        <v>82</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="n">
-        <v>3618</v>
+        <v>3523</v>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F49" t="n">
-        <v>9508</v>
+        <v>11708</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
@@ -3011,2582 +2915,2582 @@
         <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>2289379</v>
+        <v>1364256</v>
       </c>
       <c r="L49" t="n">
-        <v>2336997</v>
+        <v>2346070</v>
       </c>
       <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="n">
+        <v>11909592</v>
+      </c>
+      <c r="O49" t="n">
         <v>2</v>
-      </c>
-      <c r="N49" t="n">
-        <v>3883092</v>
-      </c>
-      <c r="O49" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" t="n">
-        <v>3617</v>
+        <v>3519</v>
       </c>
       <c r="B50" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>435</v>
+        <v>51</v>
       </c>
       <c r="F50" t="n">
-        <v>207643</v>
+        <v>372681</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>2298735</v>
+        <v>0</v>
       </c>
       <c r="J50" t="b">
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>2340164</v>
+        <v>876947</v>
       </c>
       <c r="L50" t="n">
-        <v>1361504</v>
+        <v>1080419</v>
       </c>
       <c r="M50" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N50" t="n">
-        <v>71095535</v>
+        <v>94298180</v>
       </c>
       <c r="O50" t="n">
-        <v>470</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" t="n">
-        <v>3612</v>
+        <v>3519</v>
       </c>
       <c r="B51" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>543</v>
+        <v>97</v>
       </c>
       <c r="F51" t="n">
-        <v>1752752</v>
+        <v>196230</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>1167937</v>
+        <v>430188</v>
       </c>
       <c r="J51" t="b">
         <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>1928095</v>
+        <v>313793</v>
       </c>
       <c r="L51" t="n">
-        <v>877655</v>
+        <v>967727</v>
       </c>
       <c r="M51" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N51" t="n">
-        <v>89572642</v>
+        <v>99433249</v>
       </c>
       <c r="O51" t="n">
-        <v>333</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" t="n">
-        <v>3601</v>
+        <v>3518</v>
       </c>
       <c r="B52" t="n">
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="D52" t="n">
         <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="F52" t="n">
-        <v>348431</v>
+        <v>75540</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>946583</v>
+        <v>0</v>
       </c>
       <c r="J52" t="b">
         <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>1162837</v>
+        <v>2245029</v>
       </c>
       <c r="L52" t="n">
-        <v>1080419</v>
+        <v>2275320</v>
       </c>
       <c r="M52" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
-        <v>80739132</v>
+        <v>36189195</v>
       </c>
       <c r="O52" t="n">
-        <v>113</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" t="n">
-        <v>3599</v>
+        <v>3516</v>
       </c>
       <c r="B53" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="F53" t="n">
-        <v>178726</v>
+        <v>281744</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>59210</v>
+        <v>0</v>
       </c>
       <c r="J53" t="b">
         <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>146812</v>
+        <v>978906</v>
       </c>
       <c r="L53" t="n">
-        <v>1623894</v>
+        <v>936156</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
-        <v>63213780</v>
+        <v>101431083</v>
       </c>
       <c r="O53" t="n">
-        <v>225</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" t="n">
-        <v>3594</v>
+        <v>3510</v>
       </c>
       <c r="B54" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="F54" t="n">
-        <v>261622</v>
+        <v>125129</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1473438</v>
+        <v>2258385</v>
       </c>
       <c r="J54" t="b">
         <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>1282456</v>
+        <v>2258391</v>
       </c>
       <c r="L54" t="n">
-        <v>1471867</v>
+        <v>2266042</v>
       </c>
       <c r="M54" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N54" t="n">
-        <v>66793412</v>
+        <v>38228572</v>
       </c>
       <c r="O54" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" t="n">
-        <v>3589</v>
+        <v>3499</v>
       </c>
       <c r="B55" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="D55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>537</v>
+        <v>221</v>
       </c>
       <c r="F55" t="n">
-        <v>1594672</v>
+        <v>196589</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>444676</v>
+        <v>668427</v>
       </c>
       <c r="J55" t="b">
         <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>442133</v>
+        <v>439279</v>
       </c>
       <c r="L55" t="n">
-        <v>882098</v>
+        <v>1540559</v>
       </c>
       <c r="M55" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="N55" t="n">
-        <v>89461943</v>
+        <v>77890826</v>
       </c>
       <c r="O55" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" t="n">
-        <v>3564</v>
+        <v>3488</v>
       </c>
       <c r="B56" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>249</v>
+        <v>5</v>
       </c>
       <c r="F56" t="n">
-        <v>306577</v>
+        <v>8199</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>963710</v>
+        <v>0</v>
       </c>
       <c r="J56" t="b">
         <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>1349405</v>
+        <v>742217</v>
       </c>
       <c r="L56" t="n">
-        <v>1647665</v>
+        <v>2352925</v>
       </c>
       <c r="M56" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>62786511</v>
+        <v>1801135</v>
       </c>
       <c r="O56" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="n">
-        <v>3556</v>
+        <v>3480</v>
       </c>
       <c r="B57" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>207</v>
+        <v>59</v>
       </c>
       <c r="F57" t="n">
-        <v>272699</v>
+        <v>292217</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>338811</v>
+        <v>1012267</v>
       </c>
       <c r="J57" t="b">
         <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>406920</v>
+        <v>698213</v>
       </c>
       <c r="L57" t="n">
-        <v>2098251</v>
+        <v>1391780</v>
       </c>
       <c r="M57" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N57" t="n">
-        <v>49647401</v>
+        <v>83250529</v>
       </c>
       <c r="O57" t="n">
-        <v>227</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" t="n">
-        <v>3551</v>
+        <v>3465</v>
       </c>
       <c r="B58" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>549</v>
+      </c>
+      <c r="F58" t="n">
+        <v>251534</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2289678</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1361504</v>
+      </c>
+      <c r="M58" t="n">
         <v>2</v>
       </c>
-      <c r="E58" t="n">
-        <v>389</v>
-      </c>
-      <c r="F58" t="n">
-        <v>431840</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>114726</v>
-      </c>
-      <c r="J58" t="b">
-        <v>1</v>
-      </c>
-      <c r="K58" t="n">
-        <v>14320</v>
-      </c>
-      <c r="L58" t="n">
-        <v>874122</v>
-      </c>
-      <c r="M58" t="n">
-        <v>10</v>
-      </c>
       <c r="N58" t="n">
-        <v>89675665</v>
+        <v>84654583</v>
       </c>
       <c r="O58" t="n">
-        <v>146</v>
+        <v>535</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" t="n">
-        <v>3549</v>
+        <v>3429</v>
       </c>
       <c r="B59" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>23265</v>
+        <v>108466</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1176854</v>
+        <v>350912</v>
       </c>
       <c r="J59" t="b">
         <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>1335246</v>
+        <v>135571</v>
       </c>
       <c r="L59" t="n">
-        <v>2318302</v>
+        <v>1298602</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="n">
-        <v>10199439</v>
+        <v>87291054</v>
       </c>
       <c r="O59" t="n">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" t="n">
-        <v>3524</v>
+        <v>3424</v>
       </c>
       <c r="B60" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>9</v>
+        <v>188</v>
       </c>
       <c r="F60" t="n">
-        <v>51882</v>
+        <v>1012633</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1336838</v>
+        <v>290355</v>
       </c>
       <c r="J60" t="b">
         <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>1305079</v>
+        <v>286635</v>
       </c>
       <c r="L60" t="n">
-        <v>2313129</v>
+        <v>874132</v>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N60" t="n">
-        <v>11999207</v>
+        <v>103234398</v>
       </c>
       <c r="O60" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="n">
-        <v>3519</v>
+        <v>3387</v>
       </c>
       <c r="B61" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="F61" t="n">
-        <v>190546</v>
+        <v>314914</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>430188</v>
+        <v>338811</v>
       </c>
       <c r="J61" t="b">
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>313793</v>
+        <v>406920</v>
       </c>
       <c r="L61" t="n">
-        <v>967727</v>
+        <v>2098251</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N61" t="n">
-        <v>85874201</v>
+        <v>63206449</v>
       </c>
       <c r="O61" t="n">
-        <v>92</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" t="n">
-        <v>3483</v>
+        <v>3378</v>
       </c>
       <c r="B62" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="D62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>227</v>
+        <v>361</v>
       </c>
       <c r="F62" t="n">
-        <v>114602</v>
+        <v>549392</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>2190073</v>
+        <v>1367611</v>
       </c>
       <c r="J62" t="b">
         <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>2245119</v>
+        <v>539572</v>
       </c>
       <c r="L62" t="n">
-        <v>1806633</v>
+        <v>1332289</v>
       </c>
       <c r="M62" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N62" t="n">
-        <v>59366721</v>
+        <v>85918084</v>
       </c>
       <c r="O62" t="n">
-        <v>132</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" t="n">
-        <v>3482</v>
+        <v>3347</v>
       </c>
       <c r="B63" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63" t="n">
-        <v>311</v>
+        <v>47</v>
       </c>
       <c r="F63" t="n">
-        <v>282814</v>
+        <v>144819</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>874193</v>
+        <v>2322003</v>
       </c>
       <c r="J63" t="b">
         <v>1</v>
       </c>
       <c r="K63" t="n">
-        <v>1776857</v>
+        <v>2093856</v>
       </c>
       <c r="L63" t="n">
-        <v>2075193</v>
+        <v>2200798</v>
       </c>
       <c r="M63" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N63" t="n">
-        <v>51153734</v>
+        <v>51045208</v>
       </c>
       <c r="O63" t="n">
-        <v>199</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" t="n">
-        <v>3476</v>
+        <v>3342</v>
       </c>
       <c r="B64" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="F64" t="n">
-        <v>44244</v>
+        <v>2448</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>2302559</v>
+        <v>0</v>
       </c>
       <c r="J64" t="b">
         <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>644957</v>
+        <v>2279114</v>
       </c>
       <c r="L64" t="n">
-        <v>2305215</v>
+        <v>2352738</v>
       </c>
       <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2126697</v>
+      </c>
+      <c r="O64" t="n">
         <v>4</v>
-      </c>
-      <c r="N64" t="n">
-        <v>14264337</v>
-      </c>
-      <c r="O64" t="n">
-        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" t="n">
-        <v>3424</v>
+        <v>3316</v>
       </c>
       <c r="B65" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>188</v>
+        <v>523</v>
       </c>
       <c r="F65" t="n">
-        <v>994579</v>
+        <v>2401085</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>290355</v>
+        <v>546593</v>
       </c>
       <c r="J65" t="b">
         <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>286635</v>
+        <v>346748</v>
       </c>
       <c r="L65" t="n">
-        <v>874132</v>
+        <v>886783</v>
       </c>
       <c r="M65" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N65" t="n">
-        <v>89675350</v>
+        <v>102895213</v>
       </c>
       <c r="O65" t="n">
-        <v>52</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="n">
-        <v>3420</v>
+        <v>3285</v>
       </c>
       <c r="B66" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>42</v>
+        <v>2341</v>
       </c>
       <c r="F66" t="n">
-        <v>73757</v>
+        <v>1482286</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1906563</v>
+        <v>2289845</v>
       </c>
       <c r="J66" t="b">
         <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>2153455</v>
+        <v>780450</v>
       </c>
       <c r="L66" t="n">
-        <v>2171732</v>
+        <v>874313</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="n">
-        <v>42300975</v>
+        <v>103230803</v>
       </c>
       <c r="O66" t="n">
-        <v>93</v>
+        <v>432</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" t="n">
-        <v>3417</v>
+        <v>3281</v>
       </c>
       <c r="B67" t="n">
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="D67" t="n">
         <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="F67" t="n">
-        <v>183728</v>
+        <v>235174</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>1257713</v>
+        <v>299719</v>
       </c>
       <c r="J67" t="b">
         <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>1239860</v>
+        <v>104873</v>
       </c>
       <c r="L67" t="n">
-        <v>1343677</v>
+        <v>920515</v>
       </c>
       <c r="M67" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N67" t="n">
-        <v>71846090</v>
+        <v>101894238</v>
       </c>
       <c r="O67" t="n">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="n">
-        <v>3415</v>
+        <v>3280</v>
       </c>
       <c r="B68" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F68" t="n">
-        <v>219528</v>
+        <v>145742</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>979553</v>
+        <v>0</v>
       </c>
       <c r="J68" t="b">
         <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>2111525</v>
+        <v>810983</v>
       </c>
       <c r="L68" t="n">
-        <v>1846639</v>
+        <v>2222510</v>
       </c>
       <c r="M68" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N68" t="n">
-        <v>58212494</v>
+        <v>47438371</v>
       </c>
       <c r="O68" t="n">
-        <v>136</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" t="n">
-        <v>3412</v>
+        <v>3273</v>
       </c>
       <c r="B69" t="n">
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="F69" t="n">
-        <v>128457</v>
+        <v>563390</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>68233</v>
       </c>
       <c r="J69" t="b">
         <v>1</v>
       </c>
       <c r="K69" t="n">
-        <v>1759027</v>
+        <v>394030</v>
       </c>
       <c r="L69" t="n">
-        <v>1223647</v>
+        <v>875820</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="n">
-        <v>76601310</v>
+        <v>103203061</v>
       </c>
       <c r="O69" t="n">
-        <v>57</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" t="n">
-        <v>3407</v>
+        <v>3263</v>
       </c>
       <c r="B70" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>690</v>
+        <v>27</v>
       </c>
       <c r="F70" t="n">
-        <v>169020</v>
+        <v>201971</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>943125</v>
+        <v>0</v>
       </c>
       <c r="J70" t="b">
         <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>941644</v>
+        <v>904547</v>
       </c>
       <c r="L70" t="n">
-        <v>1466624</v>
+        <v>1343677</v>
       </c>
       <c r="M70" t="n">
         <v>2</v>
       </c>
       <c r="N70" t="n">
-        <v>66970137</v>
+        <v>85405138</v>
       </c>
       <c r="O70" t="n">
-        <v>1039</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="n">
-        <v>3375</v>
+        <v>3228</v>
       </c>
       <c r="B71" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="F71" t="n">
-        <v>52751</v>
+        <v>314127</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1164075</v>
+        <v>480579</v>
       </c>
       <c r="J71" t="b">
         <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>651629</v>
+        <v>1021598</v>
       </c>
       <c r="L71" t="n">
-        <v>2251131</v>
+        <v>875150</v>
       </c>
       <c r="M71" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N71" t="n">
-        <v>28222752</v>
+        <v>103216561</v>
       </c>
       <c r="O71" t="n">
-        <v>47</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" t="n">
-        <v>3371</v>
+        <v>3220</v>
       </c>
       <c r="B72" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>91</v>
+        <v>251</v>
       </c>
       <c r="F72" t="n">
-        <v>537193</v>
+        <v>281441</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>68233</v>
+        <v>1976173</v>
       </c>
       <c r="J72" t="b">
         <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>394030</v>
+        <v>1614280</v>
       </c>
       <c r="L72" t="n">
-        <v>875820</v>
+        <v>1053262</v>
       </c>
       <c r="M72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N72" t="n">
-        <v>89644013</v>
+        <v>94827750</v>
       </c>
       <c r="O72" t="n">
-        <v>143</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="n">
-        <v>3351</v>
+        <v>3219</v>
       </c>
       <c r="B73" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="F73" t="n">
-        <v>110353</v>
+        <v>64951</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>810983</v>
+        <v>1337644</v>
       </c>
       <c r="J73" t="b">
         <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>2018847</v>
+        <v>1065279</v>
       </c>
       <c r="L73" t="n">
-        <v>2222510</v>
+        <v>2265323</v>
       </c>
       <c r="M73" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N73" t="n">
-        <v>33879323</v>
+        <v>38345342</v>
       </c>
       <c r="O73" t="n">
-        <v>188</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="n">
-        <v>3329</v>
+        <v>3211</v>
       </c>
       <c r="B74" t="n">
         <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="D74" t="n">
         <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="F74" t="n">
-        <v>269299</v>
+        <v>92829</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>1733615</v>
+        <v>1490027</v>
       </c>
       <c r="J74" t="b">
         <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>2293971</v>
+        <v>2179683</v>
       </c>
       <c r="L74" t="n">
-        <v>874217</v>
+        <v>2258736</v>
       </c>
       <c r="M74" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N74" t="n">
-        <v>89673729</v>
+        <v>39717653</v>
       </c>
       <c r="O74" t="n">
-        <v>227</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" t="n">
-        <v>3329</v>
+        <v>3211</v>
       </c>
       <c r="B75" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E75" t="n">
-        <v>15</v>
+        <v>354</v>
       </c>
       <c r="F75" t="n">
-        <v>48891</v>
+        <v>113258</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>1705958</v>
+        <v>206884</v>
       </c>
       <c r="J75" t="b">
         <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>1372083</v>
+        <v>1459490</v>
       </c>
       <c r="L75" t="n">
-        <v>2312407</v>
+        <v>2259446</v>
       </c>
       <c r="M75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N75" t="n">
-        <v>12223251</v>
+        <v>39546645</v>
       </c>
       <c r="O75" t="n">
-        <v>48</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="n">
-        <v>3322</v>
+        <v>3209</v>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="F76" t="n">
-        <v>27348</v>
+        <v>191636</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>1211600</v>
+        <v>1325667</v>
       </c>
       <c r="J76" t="b">
         <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>2302307</v>
+        <v>889122</v>
       </c>
       <c r="L76" t="n">
-        <v>2316470</v>
+        <v>1814278</v>
       </c>
       <c r="M76" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N76" t="n">
-        <v>10964799</v>
+        <v>72743325</v>
       </c>
       <c r="O76" t="n">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" t="n">
-        <v>3316</v>
+        <v>3195</v>
       </c>
       <c r="B77" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="D77" t="n">
+        <v>2</v>
+      </c>
+      <c r="E77" t="n">
+        <v>191</v>
+      </c>
+      <c r="F77" t="n">
+        <v>77802</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2302559</v>
+      </c>
+      <c r="J77" t="b">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>644957</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2305215</v>
+      </c>
+      <c r="M77" t="n">
         <v>4</v>
       </c>
-      <c r="E77" t="n">
-        <v>251</v>
-      </c>
-      <c r="F77" t="n">
-        <v>235269</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1976173</v>
-      </c>
-      <c r="J77" t="b">
-        <v>1</v>
-      </c>
-      <c r="K77" t="n">
-        <v>1614280</v>
-      </c>
-      <c r="L77" t="n">
-        <v>1053262</v>
-      </c>
-      <c r="M77" t="n">
-        <v>8</v>
-      </c>
       <c r="N77" t="n">
-        <v>81268702</v>
+        <v>27823385</v>
       </c>
       <c r="O77" t="n">
-        <v>277</v>
+        <v>407</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" t="n">
-        <v>3298</v>
+        <v>3191</v>
       </c>
       <c r="B78" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>61</v>
+        <v>269</v>
       </c>
       <c r="F78" t="n">
-        <v>264065</v>
+        <v>506680</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2199823</v>
       </c>
       <c r="J78" t="b">
         <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>1770057</v>
+        <v>1976278</v>
       </c>
       <c r="L78" t="n">
-        <v>936156</v>
+        <v>899574</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="n">
-        <v>87872035</v>
+        <v>102511785</v>
       </c>
       <c r="O78" t="n">
-        <v>45</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" t="n">
-        <v>3288</v>
+        <v>3151</v>
       </c>
       <c r="B79" t="n">
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F79" t="n">
-        <v>183620</v>
+        <v>393870</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>2211188</v>
+        <v>1143088</v>
       </c>
       <c r="J79" t="b">
         <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>1291418</v>
+        <v>1313779</v>
       </c>
       <c r="L79" t="n">
-        <v>950378</v>
+        <v>875261</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="n">
-        <v>87222646</v>
+        <v>103214602</v>
       </c>
       <c r="O79" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" t="n">
-        <v>3271</v>
+        <v>3137</v>
       </c>
       <c r="B80" t="n">
         <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="D80" t="n">
         <v>2</v>
       </c>
       <c r="E80" t="n">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="F80" t="n">
-        <v>73352</v>
+        <v>132912</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>395191</v>
+        <v>1666548</v>
       </c>
       <c r="J80" t="b">
         <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>206884</v>
+        <v>1654863</v>
       </c>
       <c r="L80" t="n">
-        <v>2259446</v>
+        <v>2179201</v>
       </c>
       <c r="M80" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N80" t="n">
-        <v>25987597</v>
+        <v>54499521</v>
       </c>
       <c r="O80" t="n">
-        <v>186</v>
+        <v>509</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" t="n">
-        <v>3267</v>
+        <v>3121</v>
       </c>
       <c r="B81" t="n">
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F81" t="n">
-        <v>122499</v>
+        <v>35810</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>755874</v>
+        <v>0</v>
       </c>
       <c r="J81" t="b">
         <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>1156063</v>
+        <v>2284467</v>
       </c>
       <c r="L81" t="n">
-        <v>1262177</v>
+        <v>2318778</v>
       </c>
       <c r="M81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N81" t="n">
-        <v>75218961</v>
+        <v>23639160</v>
       </c>
       <c r="O81" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" t="n">
-        <v>3248</v>
+        <v>3120</v>
       </c>
       <c r="B82" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>70</v>
+      </c>
+      <c r="F82" t="n">
+        <v>294222</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>559759</v>
+      </c>
+      <c r="J82" t="b">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2227652</v>
+      </c>
+      <c r="L82" t="n">
+        <v>988869</v>
+      </c>
+      <c r="M82" t="n">
         <v>2</v>
       </c>
-      <c r="E82" t="n">
-        <v>20</v>
-      </c>
-      <c r="F82" t="n">
-        <v>39262</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1337644</v>
-      </c>
-      <c r="J82" t="b">
-        <v>1</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1065279</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2265323</v>
-      </c>
-      <c r="M82" t="n">
-        <v>4</v>
-      </c>
       <c r="N82" t="n">
-        <v>24786294</v>
+        <v>97541521</v>
       </c>
       <c r="O82" t="n">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" t="n">
-        <v>3237</v>
+        <v>3114</v>
       </c>
       <c r="B83" t="n">
         <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D83" t="n">
         <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="F83" t="n">
-        <v>60332</v>
+        <v>26589</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2335787</v>
       </c>
       <c r="J83" t="b">
         <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>1851427</v>
+        <v>2291323</v>
       </c>
       <c r="L83" t="n">
-        <v>2287901</v>
+        <v>2345393</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="n">
-        <v>19536099</v>
+        <v>12421571</v>
       </c>
       <c r="O83" t="n">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" t="n">
-        <v>3203</v>
+        <v>3110</v>
       </c>
       <c r="B84" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F84" t="n">
-        <v>240206</v>
+        <v>155457</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>803057</v>
+        <v>2062713</v>
       </c>
       <c r="J84" t="b">
         <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>635253</v>
+        <v>2119810</v>
       </c>
       <c r="L84" t="n">
-        <v>914520</v>
+        <v>2052324</v>
       </c>
       <c r="M84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N84" t="n">
-        <v>88507060</v>
+        <v>65836048</v>
       </c>
       <c r="O84" t="n">
-        <v>121</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" t="n">
-        <v>3195</v>
+        <v>3105</v>
       </c>
       <c r="B85" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
-        <v>275732</v>
+        <v>3456</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>480579</v>
+        <v>0</v>
       </c>
       <c r="J85" t="b">
         <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>1021598</v>
+        <v>674054</v>
       </c>
       <c r="L85" t="n">
-        <v>875150</v>
+        <v>2352011</v>
       </c>
       <c r="M85" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N85" t="n">
-        <v>89657513</v>
+        <v>3752365</v>
       </c>
       <c r="O85" t="n">
-        <v>178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" t="n">
-        <v>3191</v>
+        <v>3089</v>
       </c>
       <c r="B86" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C86" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E86" t="n">
-        <v>269</v>
+        <v>906</v>
       </c>
       <c r="F86" t="n">
-        <v>488048</v>
+        <v>3058394</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>2199823</v>
+        <v>0</v>
       </c>
       <c r="J86" t="b">
         <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>1976278</v>
+        <v>2300566</v>
       </c>
       <c r="L86" t="n">
-        <v>899574</v>
+        <v>876211</v>
       </c>
       <c r="M86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N86" t="n">
-        <v>88952737</v>
+        <v>103163906</v>
       </c>
       <c r="O86" t="n">
-        <v>193</v>
+        <v>559</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" t="n">
-        <v>3177</v>
+        <v>3077</v>
       </c>
       <c r="B87" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="F87" t="n">
-        <v>155755</v>
+        <v>258378</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>1325667</v>
+        <v>1215481</v>
       </c>
       <c r="J87" t="b">
         <v>1</v>
       </c>
       <c r="K87" t="n">
-        <v>889122</v>
+        <v>675781</v>
       </c>
       <c r="L87" t="n">
-        <v>1814278</v>
+        <v>1969189</v>
       </c>
       <c r="M87" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N87" t="n">
-        <v>59184277</v>
+        <v>68325965</v>
       </c>
       <c r="O87" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" t="n">
-        <v>3174</v>
+        <v>3062</v>
       </c>
       <c r="B88" t="n">
         <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D88" t="n">
         <v>2</v>
       </c>
       <c r="E88" t="n">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="F88" t="n">
-        <v>193641</v>
+        <v>56438</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>299719</v>
+        <v>1211600</v>
       </c>
       <c r="J88" t="b">
         <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>104873</v>
+        <v>2302307</v>
       </c>
       <c r="L88" t="n">
-        <v>920515</v>
+        <v>2316470</v>
       </c>
       <c r="M88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N88" t="n">
-        <v>88335190</v>
+        <v>24523847</v>
       </c>
       <c r="O88" t="n">
-        <v>107</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" t="n">
-        <v>3151</v>
+        <v>3049</v>
       </c>
       <c r="B89" t="n">
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
-        <v>387138</v>
+        <v>139053</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>1143088</v>
+        <v>1163520</v>
       </c>
       <c r="J89" t="b">
         <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>1313779</v>
+        <v>576189</v>
       </c>
       <c r="L89" t="n">
-        <v>875261</v>
+        <v>878765</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="n">
-        <v>89655554</v>
+        <v>103091513</v>
       </c>
       <c r="O89" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" t="n">
-        <v>3141</v>
+        <v>3006</v>
       </c>
       <c r="B90" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
-        <v>116776</v>
+        <v>93453</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>2303914</v>
+        <v>0</v>
       </c>
       <c r="J90" t="b">
         <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>2303710</v>
+        <v>1851427</v>
       </c>
       <c r="L90" t="n">
-        <v>2305290</v>
+        <v>2287901</v>
       </c>
       <c r="M90" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N90" t="n">
-        <v>14247311</v>
+        <v>33095147</v>
       </c>
       <c r="O90" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" t="n">
-        <v>3139</v>
+        <v>3000</v>
       </c>
       <c r="B91" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>2309</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>1453640</v>
+        <v>17241</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>780450</v>
+        <v>0</v>
       </c>
       <c r="J91" t="b">
         <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>1014325</v>
+        <v>1279545</v>
       </c>
       <c r="L91" t="n">
-        <v>874313</v>
+        <v>2325425</v>
       </c>
       <c r="M91" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N91" t="n">
-        <v>89671755</v>
+        <v>21235833</v>
       </c>
       <c r="O91" t="n">
-        <v>386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" t="n">
-        <v>3138</v>
+        <v>3000</v>
       </c>
       <c r="B92" t="n">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>271182</v>
+        <v>101157</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>698213</v>
+        <v>0</v>
       </c>
       <c r="J92" t="b">
         <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>1671212</v>
+        <v>20896</v>
       </c>
       <c r="L92" t="n">
-        <v>1391780</v>
+        <v>875714</v>
       </c>
       <c r="M92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N92" t="n">
-        <v>69691481</v>
+        <v>103206648</v>
       </c>
       <c r="O92" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" t="n">
-        <v>3126</v>
+        <v>3000</v>
       </c>
       <c r="B93" t="n">
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>26644</v>
+        <v>387</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>2210389</v>
+        <v>597363</v>
       </c>
       <c r="J93" t="b">
         <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>2181005</v>
+        <v>2222440</v>
       </c>
       <c r="L93" t="n">
-        <v>2305412</v>
+        <v>2353765</v>
       </c>
       <c r="M93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N93" t="n">
-        <v>14219385</v>
+        <v>62584</v>
       </c>
       <c r="O93" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" t="n">
-        <v>3121</v>
+        <v>3000</v>
       </c>
       <c r="B94" t="n">
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>16829</v>
+        <v>8638</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>2284467</v>
+        <v>0</v>
       </c>
       <c r="J94" t="b">
         <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>2284393</v>
+        <v>434561</v>
       </c>
       <c r="L94" t="n">
-        <v>2318778</v>
+        <v>2351275</v>
       </c>
       <c r="M94" t="n">
         <v>2</v>
       </c>
       <c r="N94" t="n">
-        <v>10080112</v>
+        <v>5057613</v>
       </c>
       <c r="O94" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" t="n">
-        <v>3120</v>
+        <v>3000</v>
       </c>
       <c r="B95" t="n">
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>275676</v>
+        <v>7724</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>559759</v>
+        <v>0</v>
       </c>
       <c r="J95" t="b">
         <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>2227652</v>
+        <v>2116497</v>
       </c>
       <c r="L95" t="n">
-        <v>988869</v>
+        <v>2351331</v>
       </c>
       <c r="M95" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N95" t="n">
-        <v>83982473</v>
+        <v>4967436</v>
       </c>
       <c r="O95" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" t="n">
-        <v>3107</v>
+        <v>3000</v>
       </c>
       <c r="B96" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>225466</v>
+        <v>7809</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>1727965</v>
+        <v>2291351</v>
       </c>
       <c r="J96" t="b">
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>304350</v>
+        <v>2349565</v>
       </c>
       <c r="L96" t="n">
-        <v>1016877</v>
+        <v>2352711</v>
       </c>
       <c r="M96" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N96" t="n">
-        <v>81882551</v>
+        <v>2160614</v>
       </c>
       <c r="O96" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" t="n">
-        <v>3077</v>
+        <v>2991</v>
       </c>
       <c r="B97" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E97" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>243725</v>
+        <v>12390</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>1215481</v>
+        <v>107133</v>
       </c>
       <c r="J97" t="b">
         <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>675781</v>
+        <v>540962</v>
       </c>
       <c r="L97" t="n">
-        <v>1969189</v>
+        <v>2352866</v>
       </c>
       <c r="M97" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N97" t="n">
-        <v>54766917</v>
+        <v>1899814</v>
       </c>
       <c r="O97" t="n">
-        <v>133</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" t="n">
-        <v>3068</v>
+        <v>2979</v>
       </c>
       <c r="B98" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98" t="n">
-        <v>518</v>
+        <v>83</v>
       </c>
       <c r="F98" t="n">
-        <v>2380563</v>
+        <v>265153</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1727965</v>
       </c>
       <c r="J98" t="b">
         <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>346748</v>
+        <v>304350</v>
       </c>
       <c r="L98" t="n">
-        <v>886783</v>
+        <v>1016877</v>
       </c>
       <c r="M98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N98" t="n">
-        <v>89336165</v>
+        <v>95441599</v>
       </c>
       <c r="O98" t="n">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" t="n">
-        <v>3063</v>
+        <v>2971</v>
       </c>
       <c r="B99" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>154668</v>
+        <v>26130</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>1002774</v>
+        <v>48044</v>
       </c>
       <c r="J99" t="b">
         <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>233279</v>
+        <v>47319</v>
       </c>
       <c r="L99" t="n">
-        <v>1412909</v>
+        <v>2313614</v>
       </c>
       <c r="M99" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N99" t="n">
-        <v>68842538</v>
+        <v>25440043</v>
       </c>
       <c r="O99" t="n">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" t="n">
-        <v>3055</v>
+        <v>2961</v>
       </c>
       <c r="B100" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="F100" t="n">
-        <v>107524</v>
+        <v>166439</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>2322003</v>
+        <v>1002774</v>
       </c>
       <c r="J100" t="b">
         <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>2093856</v>
+        <v>233279</v>
       </c>
       <c r="L100" t="n">
-        <v>2200798</v>
+        <v>1412909</v>
       </c>
       <c r="M100" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N100" t="n">
-        <v>37486160</v>
+        <v>82401586</v>
       </c>
       <c r="O100" t="n">
-        <v>129</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" t="n">
-        <v>3055</v>
+        <v>2944</v>
       </c>
       <c r="B101" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E101" t="n">
-        <v>14</v>
+        <v>1127</v>
       </c>
       <c r="F101" t="n">
-        <v>198242</v>
+        <v>4455874</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>293664</v>
+        <v>0</v>
       </c>
       <c r="J101" t="b">
         <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>350493</v>
+        <v>2346192</v>
       </c>
       <c r="L101" t="n">
-        <v>874491</v>
+        <v>878291</v>
       </c>
       <c r="M101" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N101" t="n">
-        <v>89668590</v>
+        <v>103121019</v>
       </c>
       <c r="O101" t="n">
-        <v>19</v>
+        <v>474</v>
       </c>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" t="n">
-        <v>3044</v>
+        <v>2937</v>
       </c>
       <c r="B102" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" t="n">
         <v>11</v>
       </c>
-      <c r="D102" t="n">
-        <v>3</v>
-      </c>
-      <c r="E102" t="n">
-        <v>148</v>
-      </c>
       <c r="F102" t="n">
-        <v>200335</v>
+        <v>10883</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>1690547</v>
+        <v>1100961</v>
       </c>
       <c r="J102" t="b">
         <v>1</v>
       </c>
       <c r="K102" t="n">
-        <v>2068785</v>
+        <v>49509</v>
       </c>
       <c r="L102" t="n">
-        <v>2196555</v>
+        <v>2348702</v>
       </c>
       <c r="M102" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N102" t="n">
-        <v>38022453</v>
+        <v>8764994</v>
       </c>
       <c r="O102" t="n">
-        <v>194</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" t="n">
-        <v>3017</v>
+        <v>2923</v>
       </c>
       <c r="B103" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D103" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="F103" t="n">
-        <v>1614485</v>
+        <v>187701</v>
       </c>
       <c r="G103" t="b">
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>402191</v>
+        <v>420568</v>
       </c>
       <c r="J103" t="b">
         <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>922447</v>
+        <v>1170602</v>
       </c>
       <c r="L103" t="n">
-        <v>888745</v>
+        <v>889521</v>
       </c>
       <c r="M103" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="N103" t="n">
-        <v>89309642</v>
+        <v>102849737</v>
       </c>
       <c r="O103" t="n">
-        <v>31</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" t="n">
-        <v>3013</v>
+        <v>2920</v>
       </c>
       <c r="B104" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C104" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E104" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F104" t="n">
-        <v>5654</v>
+        <v>1874180</v>
       </c>
       <c r="G104" t="b">
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>2304101</v>
+        <v>402191</v>
       </c>
       <c r="J104" t="b">
         <v>1</v>
       </c>
       <c r="K104" t="n">
-        <v>138995</v>
+        <v>922447</v>
       </c>
       <c r="L104" t="n">
-        <v>2325992</v>
+        <v>888745</v>
       </c>
       <c r="M104" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N104" t="n">
-        <v>7420809</v>
+        <v>102868690</v>
       </c>
       <c r="O104" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" t="n">
-        <v>3000</v>
+        <v>2920</v>
       </c>
       <c r="B105" t="n">
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F105" t="n">
-        <v>3004</v>
+        <v>124147</v>
       </c>
       <c r="G105" t="b">
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>797674</v>
+        <v>-1</v>
       </c>
       <c r="J105" t="b">
         <v>1</v>
       </c>
       <c r="K105" t="n">
-        <v>2288607</v>
+        <v>2114593</v>
       </c>
       <c r="L105" t="n">
-        <v>2325440</v>
+        <v>2166084</v>
       </c>
       <c r="M105" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N105" t="n">
-        <v>7674550</v>
+        <v>56710078</v>
       </c>
       <c r="O105" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" t="n">
-        <v>3000</v>
+        <v>2905</v>
       </c>
       <c r="B106" t="n">
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>2538</v>
+        <v>133251</v>
       </c>
       <c r="G106" t="b">
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>2325591</v>
+        <v>0</v>
       </c>
       <c r="J106" t="b">
         <v>1</v>
       </c>
       <c r="K106" t="n">
-        <v>959193</v>
+        <v>253422</v>
       </c>
       <c r="L106" t="n">
-        <v>2339855</v>
+        <v>882996</v>
       </c>
       <c r="M106" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N106" t="n">
-        <v>2679010</v>
+        <v>102976423</v>
       </c>
       <c r="O106" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" t="n">
-        <v>3000</v>
+        <v>2880</v>
       </c>
       <c r="B107" t="n">
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="F107" t="n">
-        <v>2041</v>
+        <v>153258</v>
       </c>
       <c r="G107" t="b">
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2163869</v>
       </c>
       <c r="J107" t="b">
         <v>1</v>
       </c>
       <c r="K107" t="n">
-        <v>430478</v>
+        <v>347197</v>
       </c>
       <c r="L107" t="n">
-        <v>2339099</v>
+        <v>876063</v>
       </c>
       <c r="M107" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N107" t="n">
-        <v>2999706</v>
+        <v>103179654</v>
       </c>
       <c r="O107" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" t="n">
-        <v>3000</v>
+        <v>2865</v>
       </c>
       <c r="B108" t="n">
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
@@ -5595,315 +5499,315 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>20755</v>
+        <v>16660</v>
       </c>
       <c r="G108" t="b">
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>570158</v>
       </c>
       <c r="J108" t="b">
         <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>2169360</v>
+        <v>1272105</v>
       </c>
       <c r="L108" t="n">
-        <v>2258380</v>
+        <v>2325434</v>
       </c>
       <c r="M108" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N108" t="n">
-        <v>26243872</v>
+        <v>21234292</v>
       </c>
       <c r="O108" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" t="n">
-        <v>3000</v>
+        <v>2840</v>
       </c>
       <c r="B109" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>2144</v>
+        <v>126903</v>
       </c>
       <c r="G109" t="b">
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1129378</v>
       </c>
       <c r="J109" t="b">
         <v>1</v>
       </c>
       <c r="K109" t="n">
-        <v>2326477</v>
+        <v>1135850</v>
       </c>
       <c r="L109" t="n">
-        <v>2326260</v>
+        <v>2274409</v>
       </c>
       <c r="M109" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N109" t="n">
-        <v>7283535</v>
+        <v>36416416</v>
       </c>
       <c r="O109" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" t="n">
-        <v>3000</v>
+        <v>2838</v>
       </c>
       <c r="B110" t="n">
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F110" t="n">
-        <v>1811</v>
+        <v>41210</v>
       </c>
       <c r="G110" t="b">
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1379020</v>
       </c>
       <c r="J110" t="b">
         <v>1</v>
       </c>
       <c r="K110" t="n">
-        <v>2289678</v>
+        <v>2228530</v>
       </c>
       <c r="L110" t="n">
-        <v>2326363</v>
+        <v>2319412</v>
       </c>
       <c r="M110" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N110" t="n">
-        <v>7238190</v>
+        <v>23316440</v>
       </c>
       <c r="O110" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" t="n">
-        <v>3000</v>
+        <v>2775</v>
       </c>
       <c r="B111" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C111" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F111" t="n">
-        <v>2082</v>
+        <v>1681090</v>
       </c>
       <c r="G111" t="b">
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1625488</v>
       </c>
       <c r="J111" t="b">
         <v>1</v>
       </c>
       <c r="K111" t="n">
-        <v>2287873</v>
+        <v>277622</v>
       </c>
       <c r="L111" t="n">
-        <v>2325425</v>
+        <v>986990</v>
       </c>
       <c r="M111" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N111" t="n">
-        <v>7676785</v>
+        <v>97708826</v>
       </c>
       <c r="O111" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" t="n">
-        <v>3000</v>
+        <v>2748</v>
       </c>
       <c r="B112" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F112" t="n">
-        <v>86667</v>
+        <v>318260</v>
       </c>
       <c r="G112" t="b">
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>953540</v>
       </c>
       <c r="J112" t="b">
         <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>1137347</v>
+        <v>668011</v>
       </c>
       <c r="L112" t="n">
-        <v>1689792</v>
+        <v>1313131</v>
       </c>
       <c r="M112" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N112" t="n">
-        <v>62000467</v>
+        <v>86691813</v>
       </c>
       <c r="O112" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:15">
       <c r="A113" t="n">
-        <v>3000</v>
+        <v>2724</v>
       </c>
       <c r="B113" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F113" t="n">
-        <v>1135</v>
+        <v>192127</v>
       </c>
       <c r="G113" t="b">
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1538294</v>
       </c>
       <c r="J113" t="b">
         <v>1</v>
       </c>
       <c r="K113" t="n">
-        <v>697021</v>
+        <v>991069</v>
       </c>
       <c r="L113" t="n">
-        <v>2340055</v>
+        <v>1061224</v>
       </c>
       <c r="M113" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N113" t="n">
-        <v>2570710</v>
+        <v>94666216</v>
       </c>
       <c r="O113" t="n">
-        <v>0</v>
+        <v>511</v>
       </c>
     </row>
     <row r="114" spans="1:15">
       <c r="A114" t="n">
-        <v>2983</v>
+        <v>2677</v>
       </c>
       <c r="B114" t="n">
         <v>5</v>
       </c>
-      <c r="C114" t="n">
-        <v>444</v>
+      <c r="C114" t="s">
+        <v>36</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F114" t="n">
-        <v>9337</v>
+        <v>290769</v>
       </c>
       <c r="G114" t="b">
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2283462</v>
       </c>
       <c r="J114" t="b">
         <v>1</v>
       </c>
       <c r="K114" t="n">
-        <v>2261603</v>
+        <v>23187</v>
       </c>
       <c r="L114" t="n">
-        <v>2327154</v>
+        <v>987201</v>
       </c>
       <c r="M114" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N114" t="n">
-        <v>6966759</v>
+        <v>97694597</v>
       </c>
       <c r="O114" t="n">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="115" spans="1:15">
       <c r="A115" t="n">
-        <v>2980</v>
+        <v>2607</v>
       </c>
       <c r="B115" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E115" t="n">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="F115" t="n">
-        <v>138338</v>
+        <v>430738</v>
       </c>
       <c r="G115" t="b">
         <v>0</v>
@@ -5915,127 +5819,127 @@
         <v>1</v>
       </c>
       <c r="K115" t="n">
-        <v>1379490</v>
+        <v>1373649</v>
       </c>
       <c r="L115" t="n">
-        <v>2052324</v>
+        <v>895696</v>
       </c>
       <c r="M115" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N115" t="n">
-        <v>52277000</v>
+        <v>102621342</v>
       </c>
       <c r="O115" t="n">
-        <v>160</v>
+        <v>543</v>
       </c>
     </row>
     <row r="116" spans="1:15">
       <c r="A116" t="n">
-        <v>2979</v>
+        <v>2563</v>
       </c>
       <c r="B116" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="D116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="F116" t="n">
-        <v>16341</v>
+        <v>205335</v>
       </c>
       <c r="G116" t="b">
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>48044</v>
+        <v>525164</v>
       </c>
       <c r="J116" t="b">
         <v>1</v>
       </c>
       <c r="K116" t="n">
-        <v>47319</v>
+        <v>150283</v>
       </c>
       <c r="L116" t="n">
-        <v>2313614</v>
+        <v>1005465</v>
       </c>
       <c r="M116" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N116" t="n">
-        <v>11880995</v>
+        <v>96150035</v>
       </c>
       <c r="O116" t="n">
-        <v>4</v>
+        <v>719</v>
       </c>
     </row>
     <row r="117" spans="1:15">
       <c r="A117" t="n">
-        <v>2965</v>
+        <v>2486</v>
       </c>
       <c r="B117" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="D117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>7498</v>
+        <v>180321</v>
       </c>
       <c r="G117" t="b">
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>421769</v>
       </c>
       <c r="J117" t="b">
         <v>1</v>
       </c>
       <c r="K117" t="n">
-        <v>1071201</v>
+        <v>416885</v>
       </c>
       <c r="L117" t="n">
-        <v>2325565</v>
+        <v>926631</v>
       </c>
       <c r="M117" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N117" t="n">
-        <v>7649176</v>
+        <v>101736291</v>
       </c>
       <c r="O117" t="n">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" t="n">
-        <v>2957</v>
+        <v>2153</v>
       </c>
       <c r="B118" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E118" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F118" t="n">
-        <v>147934</v>
+        <v>301318</v>
       </c>
       <c r="G118" t="b">
         <v>0</v>
@@ -6047,1471 +5951,19 @@
         <v>1</v>
       </c>
       <c r="K118" t="n">
-        <v>2171544</v>
+        <v>1007302</v>
       </c>
       <c r="L118" t="n">
-        <v>1143051</v>
+        <v>899506</v>
       </c>
       <c r="M118" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N118" t="n">
-        <v>79221312</v>
+        <v>102513566</v>
       </c>
       <c r="O118" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
-      <c r="A119" t="n">
-        <v>2943</v>
-      </c>
-      <c r="B119" t="n">
-        <v>10</v>
-      </c>
-      <c r="C119" t="s">
-        <v>145</v>
-      </c>
-      <c r="D119" t="n">
-        <v>2</v>
-      </c>
-      <c r="E119" t="n">
-        <v>1</v>
-      </c>
-      <c r="F119" t="n">
-        <v>34401</v>
-      </c>
-      <c r="G119" t="b">
-        <v>0</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2123056</v>
-      </c>
-      <c r="J119" t="b">
-        <v>1</v>
-      </c>
-      <c r="K119" t="n">
-        <v>2028175</v>
-      </c>
-      <c r="L119" t="n">
-        <v>2258736</v>
-      </c>
-      <c r="M119" t="n">
-        <v>6</v>
-      </c>
-      <c r="N119" t="n">
-        <v>26158605</v>
-      </c>
-      <c r="O119" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
-      <c r="A120" t="n">
-        <v>2940</v>
-      </c>
-      <c r="B120" t="n">
-        <v>5</v>
-      </c>
-      <c r="C120" t="s">
-        <v>83</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1</v>
-      </c>
-      <c r="E120" t="n">
-        <v>2</v>
-      </c>
-      <c r="F120" t="n">
-        <v>6476</v>
-      </c>
-      <c r="G120" t="b">
-        <v>0</v>
-      </c>
-      <c r="H120" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J120" t="b">
-        <v>1</v>
-      </c>
-      <c r="K120" t="n">
-        <v>116929</v>
-      </c>
-      <c r="L120" t="n">
-        <v>2326674</v>
-      </c>
-      <c r="M120" t="n">
-        <v>3</v>
-      </c>
-      <c r="N120" t="n">
-        <v>7143724</v>
-      </c>
-      <c r="O120" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
-      <c r="A121" t="n">
-        <v>2928</v>
-      </c>
-      <c r="B121" t="n">
-        <v>10</v>
-      </c>
-      <c r="C121" t="s">
-        <v>87</v>
-      </c>
-      <c r="D121" t="n">
-        <v>2</v>
-      </c>
-      <c r="E121" t="n">
-        <v>135</v>
-      </c>
-      <c r="F121" t="n">
-        <v>103430</v>
-      </c>
-      <c r="G121" t="b">
-        <v>0</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1666548</v>
-      </c>
-      <c r="J121" t="b">
-        <v>1</v>
-      </c>
-      <c r="K121" t="n">
-        <v>1654863</v>
-      </c>
-      <c r="L121" t="n">
-        <v>2179201</v>
-      </c>
-      <c r="M121" t="n">
-        <v>2</v>
-      </c>
-      <c r="N121" t="n">
-        <v>40940473</v>
-      </c>
-      <c r="O121" t="n">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
-      <c r="A122" t="n">
-        <v>2923</v>
-      </c>
-      <c r="B122" t="n">
-        <v>5</v>
-      </c>
-      <c r="C122" t="s">
-        <v>31</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" t="n">
-        <v>84</v>
-      </c>
-      <c r="F122" t="n">
-        <v>172090</v>
-      </c>
-      <c r="G122" t="b">
-        <v>0</v>
-      </c>
-      <c r="H122" t="n">
-        <v>420568</v>
-      </c>
-      <c r="J122" t="b">
-        <v>1</v>
-      </c>
-      <c r="K122" t="n">
-        <v>1170602</v>
-      </c>
-      <c r="L122" t="n">
-        <v>889521</v>
-      </c>
-      <c r="M122" t="n">
-        <v>5</v>
-      </c>
-      <c r="N122" t="n">
-        <v>89290689</v>
-      </c>
-      <c r="O122" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="A123" t="n">
-        <v>2920</v>
-      </c>
-      <c r="B123" t="n">
-        <v>5</v>
-      </c>
-      <c r="C123" t="s">
-        <v>40</v>
-      </c>
-      <c r="D123" t="n">
-        <v>1</v>
-      </c>
-      <c r="E123" t="n">
-        <v>60</v>
-      </c>
-      <c r="F123" t="n">
-        <v>95205</v>
-      </c>
-      <c r="G123" t="b">
-        <v>0</v>
-      </c>
-      <c r="H123" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J123" t="b">
-        <v>1</v>
-      </c>
-      <c r="K123" t="n">
-        <v>2114593</v>
-      </c>
-      <c r="L123" t="n">
-        <v>2166084</v>
-      </c>
-      <c r="M123" t="n">
-        <v>3</v>
-      </c>
-      <c r="N123" t="n">
-        <v>43151030</v>
-      </c>
-      <c r="O123" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
-      <c r="A124" t="n">
-        <v>2914</v>
-      </c>
-      <c r="B124" t="n">
-        <v>25</v>
-      </c>
-      <c r="C124" t="s">
-        <v>7</v>
-      </c>
-      <c r="D124" t="n">
-        <v>5</v>
-      </c>
-      <c r="E124" t="n">
-        <v>120</v>
-      </c>
-      <c r="F124" t="n">
-        <v>649800</v>
-      </c>
-      <c r="G124" t="b">
-        <v>0</v>
-      </c>
-      <c r="H124" t="n">
-        <v>387478</v>
-      </c>
-      <c r="J124" t="b">
-        <v>1</v>
-      </c>
-      <c r="K124" t="n">
-        <v>2310323</v>
-      </c>
-      <c r="L124" t="n">
-        <v>978957</v>
-      </c>
-      <c r="M124" t="n">
-        <v>16</v>
-      </c>
-      <c r="N124" t="n">
-        <v>84915319</v>
-      </c>
-      <c r="O124" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
-      <c r="A125" t="n">
-        <v>2912</v>
-      </c>
-      <c r="B125" t="n">
-        <v>5</v>
-      </c>
-      <c r="C125" t="s">
-        <v>10</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1</v>
-      </c>
-      <c r="E125" t="n">
-        <v>3</v>
-      </c>
-      <c r="F125" t="n">
-        <v>10635</v>
-      </c>
-      <c r="G125" t="b">
-        <v>0</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="b">
-        <v>1</v>
-      </c>
-      <c r="K125" t="n">
-        <v>570158</v>
-      </c>
-      <c r="L125" t="n">
-        <v>2331633</v>
-      </c>
-      <c r="M125" t="n">
-        <v>2</v>
-      </c>
-      <c r="N125" t="n">
-        <v>5737117</v>
-      </c>
-      <c r="O125" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
-      <c r="A126" t="n">
-        <v>2912</v>
-      </c>
-      <c r="B126" t="n">
-        <v>5</v>
-      </c>
-      <c r="C126" t="s">
-        <v>34</v>
-      </c>
-      <c r="D126" t="n">
-        <v>1</v>
-      </c>
-      <c r="E126" t="n">
-        <v>37</v>
-      </c>
-      <c r="F126" t="n">
-        <v>217238</v>
-      </c>
-      <c r="G126" t="b">
-        <v>0</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="b">
-        <v>1</v>
-      </c>
-      <c r="K126" t="n">
-        <v>1782583</v>
-      </c>
-      <c r="L126" t="n">
-        <v>1332506</v>
-      </c>
-      <c r="M126" t="n">
-        <v>4</v>
-      </c>
-      <c r="N126" t="n">
-        <v>72319733</v>
-      </c>
-      <c r="O126" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
-      <c r="A127" t="n">
-        <v>2905</v>
-      </c>
-      <c r="B127" t="n">
-        <v>5</v>
-      </c>
-      <c r="C127" t="s">
-        <v>101</v>
-      </c>
-      <c r="D127" t="n">
-        <v>1</v>
-      </c>
-      <c r="E127" t="n">
-        <v>1</v>
-      </c>
-      <c r="F127" t="n">
-        <v>127140</v>
-      </c>
-      <c r="G127" t="b">
-        <v>0</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="b">
-        <v>1</v>
-      </c>
-      <c r="K127" t="n">
-        <v>253422</v>
-      </c>
-      <c r="L127" t="n">
-        <v>882996</v>
-      </c>
-      <c r="M127" t="n">
-        <v>5</v>
-      </c>
-      <c r="N127" t="n">
-        <v>89417375</v>
-      </c>
-      <c r="O127" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
-      <c r="A128" t="n">
-        <v>2904</v>
-      </c>
-      <c r="B128" t="n">
-        <v>35</v>
-      </c>
-      <c r="C128" t="s">
-        <v>158</v>
-      </c>
-      <c r="D128" t="n">
-        <v>7</v>
-      </c>
-      <c r="E128" t="n">
-        <v>14</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1403575</v>
-      </c>
-      <c r="G128" t="b">
-        <v>0</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="b">
-        <v>1</v>
-      </c>
-      <c r="K128" t="n">
-        <v>277622</v>
-      </c>
-      <c r="L128" t="n">
-        <v>986990</v>
-      </c>
-      <c r="M128" t="n">
-        <v>31</v>
-      </c>
-      <c r="N128" t="n">
-        <v>84149778</v>
-      </c>
-      <c r="O128" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
-      <c r="A129" t="n">
-        <v>2902</v>
-      </c>
-      <c r="B129" t="n">
-        <v>5</v>
-      </c>
-      <c r="C129" t="s">
-        <v>89</v>
-      </c>
-      <c r="D129" t="n">
-        <v>1</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0</v>
-      </c>
-      <c r="F129" t="n">
-        <v>7579</v>
-      </c>
-      <c r="G129" t="b">
-        <v>0</v>
-      </c>
-      <c r="H129" t="n">
-        <v>929975</v>
-      </c>
-      <c r="J129" t="b">
-        <v>1</v>
-      </c>
-      <c r="K129" t="n">
-        <v>2288601</v>
-      </c>
-      <c r="L129" t="n">
-        <v>2327380</v>
-      </c>
-      <c r="M129" t="n">
-        <v>2</v>
-      </c>
-      <c r="N129" t="n">
-        <v>6858317</v>
-      </c>
-      <c r="O129" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
-      <c r="A130" t="n">
-        <v>2900</v>
-      </c>
-      <c r="B130" t="n">
-        <v>5</v>
-      </c>
-      <c r="C130" t="s">
-        <v>91</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1</v>
-      </c>
-      <c r="E130" t="n">
-        <v>1</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1940</v>
-      </c>
-      <c r="G130" t="b">
-        <v>0</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="b">
-        <v>1</v>
-      </c>
-      <c r="K130" t="n">
-        <v>1792675</v>
-      </c>
-      <c r="L130" t="n">
-        <v>2338676</v>
-      </c>
-      <c r="M130" t="n">
-        <v>3</v>
-      </c>
-      <c r="N130" t="n">
-        <v>3209342</v>
-      </c>
-      <c r="O130" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15">
-      <c r="A131" t="n">
-        <v>2897</v>
-      </c>
-      <c r="B131" t="n">
-        <v>5</v>
-      </c>
-      <c r="C131" t="s">
-        <v>1</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1</v>
-      </c>
-      <c r="E131" t="n">
-        <v>19</v>
-      </c>
-      <c r="F131" t="n">
-        <v>87271</v>
-      </c>
-      <c r="G131" t="b">
-        <v>0</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1371465</v>
-      </c>
-      <c r="J131" t="b">
-        <v>1</v>
-      </c>
-      <c r="K131" t="n">
-        <v>128690</v>
-      </c>
-      <c r="L131" t="n">
-        <v>1443728</v>
-      </c>
-      <c r="M131" t="n">
-        <v>5</v>
-      </c>
-      <c r="N131" t="n">
-        <v>67694838</v>
-      </c>
-      <c r="O131" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15">
-      <c r="A132" t="n">
-        <v>2888</v>
-      </c>
-      <c r="B132" t="n">
-        <v>10</v>
-      </c>
-      <c r="C132" t="s">
-        <v>58</v>
-      </c>
-      <c r="D132" t="n">
-        <v>2</v>
-      </c>
-      <c r="E132" t="n">
-        <v>2</v>
-      </c>
-      <c r="F132" t="n">
-        <v>9493</v>
-      </c>
-      <c r="G132" t="b">
-        <v>0</v>
-      </c>
-      <c r="H132" t="n">
-        <v>929711</v>
-      </c>
-      <c r="J132" t="b">
-        <v>1</v>
-      </c>
-      <c r="K132" t="n">
-        <v>2289957</v>
-      </c>
-      <c r="L132" t="n">
-        <v>2325585</v>
-      </c>
-      <c r="M132" t="n">
-        <v>5</v>
-      </c>
-      <c r="N132" t="n">
-        <v>7637583</v>
-      </c>
-      <c r="O132" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
-      <c r="A133" t="n">
-        <v>2880</v>
-      </c>
-      <c r="B133" t="n">
-        <v>5</v>
-      </c>
-      <c r="C133" t="s">
-        <v>42</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1</v>
-      </c>
-      <c r="E133" t="n">
-        <v>103</v>
-      </c>
-      <c r="F133" t="n">
-        <v>143571</v>
-      </c>
-      <c r="G133" t="b">
-        <v>0</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2163869</v>
-      </c>
-      <c r="J133" t="b">
-        <v>1</v>
-      </c>
-      <c r="K133" t="n">
-        <v>347197</v>
-      </c>
-      <c r="L133" t="n">
-        <v>876063</v>
-      </c>
-      <c r="M133" t="n">
-        <v>5</v>
-      </c>
-      <c r="N133" t="n">
-        <v>89620606</v>
-      </c>
-      <c r="O133" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15">
-      <c r="A134" t="n">
-        <v>2880</v>
-      </c>
-      <c r="B134" t="n">
-        <v>15</v>
-      </c>
-      <c r="C134" t="s">
-        <v>150</v>
-      </c>
-      <c r="D134" t="n">
-        <v>3</v>
-      </c>
-      <c r="E134" t="n">
-        <v>10</v>
-      </c>
-      <c r="F134" t="n">
-        <v>336063</v>
-      </c>
-      <c r="G134" t="b">
-        <v>0</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1161195</v>
-      </c>
-      <c r="J134" t="b">
-        <v>1</v>
-      </c>
-      <c r="K134" t="n">
-        <v>220133</v>
-      </c>
-      <c r="L134" t="n">
-        <v>874501</v>
-      </c>
-      <c r="M134" t="n">
-        <v>15</v>
-      </c>
-      <c r="N134" t="n">
-        <v>89668532</v>
-      </c>
-      <c r="O134" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15">
-      <c r="A135" t="n">
-        <v>2878</v>
-      </c>
-      <c r="B135" t="n">
-        <v>5</v>
-      </c>
-      <c r="C135" t="s">
-        <v>35</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1</v>
-      </c>
-      <c r="E135" t="n">
-        <v>37</v>
-      </c>
-      <c r="F135" t="n">
-        <v>154101</v>
-      </c>
-      <c r="G135" t="b">
-        <v>0</v>
-      </c>
-      <c r="H135" t="n">
-        <v>384544</v>
-      </c>
-      <c r="J135" t="b">
-        <v>1</v>
-      </c>
-      <c r="K135" t="n">
-        <v>1528501</v>
-      </c>
-      <c r="L135" t="n">
-        <v>1250566</v>
-      </c>
-      <c r="M135" t="n">
-        <v>5</v>
-      </c>
-      <c r="N135" t="n">
-        <v>75634599</v>
-      </c>
-      <c r="O135" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
-      <c r="A136" t="n">
-        <v>2877</v>
-      </c>
-      <c r="B136" t="n">
-        <v>10</v>
-      </c>
-      <c r="C136" t="s">
-        <v>102</v>
-      </c>
-      <c r="D136" t="n">
-        <v>2</v>
-      </c>
-      <c r="E136" t="n">
-        <v>67</v>
-      </c>
-      <c r="F136" t="n">
-        <v>165725</v>
-      </c>
-      <c r="G136" t="b">
-        <v>0</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1618913</v>
-      </c>
-      <c r="J136" t="b">
-        <v>1</v>
-      </c>
-      <c r="K136" t="n">
-        <v>1601172</v>
-      </c>
-      <c r="L136" t="n">
-        <v>1862263</v>
-      </c>
-      <c r="M136" t="n">
-        <v>3</v>
-      </c>
-      <c r="N136" t="n">
-        <v>57796704</v>
-      </c>
-      <c r="O136" t="n">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
-      <c r="A137" t="n">
-        <v>2874</v>
-      </c>
-      <c r="B137" t="n">
-        <v>10</v>
-      </c>
-      <c r="C137" t="s">
-        <v>131</v>
-      </c>
-      <c r="D137" t="n">
-        <v>2</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0</v>
-      </c>
-      <c r="F137" t="n">
-        <v>88648</v>
-      </c>
-      <c r="G137" t="b">
-        <v>0</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="b">
-        <v>1</v>
-      </c>
-      <c r="K137" t="n">
-        <v>1135850</v>
-      </c>
-      <c r="L137" t="n">
-        <v>2274409</v>
-      </c>
-      <c r="M137" t="n">
-        <v>10</v>
-      </c>
-      <c r="N137" t="n">
-        <v>22857368</v>
-      </c>
-      <c r="O137" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
-      <c r="A138" t="n">
-        <v>2865</v>
-      </c>
-      <c r="B138" t="n">
-        <v>5</v>
-      </c>
-      <c r="C138" t="s">
-        <v>18</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2409</v>
-      </c>
-      <c r="G138" t="b">
-        <v>0</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="b">
-        <v>1</v>
-      </c>
-      <c r="K138" t="n">
-        <v>2331285</v>
-      </c>
-      <c r="L138" t="n">
-        <v>2325434</v>
-      </c>
-      <c r="M138" t="n">
-        <v>4</v>
-      </c>
-      <c r="N138" t="n">
-        <v>7675244</v>
-      </c>
-      <c r="O138" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15">
-      <c r="A139" t="n">
-        <v>2838</v>
-      </c>
-      <c r="B139" t="n">
-        <v>5</v>
-      </c>
-      <c r="C139" t="s">
-        <v>75</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1</v>
-      </c>
-      <c r="E139" t="n">
-        <v>50</v>
-      </c>
-      <c r="F139" t="n">
-        <v>15012</v>
-      </c>
-      <c r="G139" t="b">
-        <v>0</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1379020</v>
-      </c>
-      <c r="J139" t="b">
-        <v>1</v>
-      </c>
-      <c r="K139" t="n">
-        <v>2228530</v>
-      </c>
-      <c r="L139" t="n">
-        <v>2319412</v>
-      </c>
-      <c r="M139" t="n">
-        <v>5</v>
-      </c>
-      <c r="N139" t="n">
-        <v>9757392</v>
-      </c>
-      <c r="O139" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
-      <c r="A140" t="n">
-        <v>2825</v>
-      </c>
-      <c r="B140" t="n">
-        <v>25</v>
-      </c>
-      <c r="C140" t="s">
-        <v>17</v>
-      </c>
-      <c r="D140" t="n">
-        <v>5</v>
-      </c>
-      <c r="E140" t="n">
-        <v>17</v>
-      </c>
-      <c r="F140" t="n">
-        <v>913890</v>
-      </c>
-      <c r="G140" t="b">
-        <v>0</v>
-      </c>
-      <c r="H140" t="n">
-        <v>653981</v>
-      </c>
-      <c r="J140" t="b">
-        <v>1</v>
-      </c>
-      <c r="K140" t="n">
-        <v>102606</v>
-      </c>
-      <c r="L140" t="n">
-        <v>906065</v>
-      </c>
-      <c r="M140" t="n">
-        <v>23</v>
-      </c>
-      <c r="N140" t="n">
-        <v>88770392</v>
-      </c>
-      <c r="O140" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
-      <c r="A141" t="n">
-        <v>2797</v>
-      </c>
-      <c r="B141" t="n">
-        <v>5</v>
-      </c>
-      <c r="C141" t="s">
-        <v>111</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1</v>
-      </c>
-      <c r="E141" t="n">
-        <v>76</v>
-      </c>
-      <c r="F141" t="n">
-        <v>171684</v>
-      </c>
-      <c r="G141" t="b">
-        <v>0</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1538294</v>
-      </c>
-      <c r="J141" t="b">
-        <v>1</v>
-      </c>
-      <c r="K141" t="n">
-        <v>991069</v>
-      </c>
-      <c r="L141" t="n">
-        <v>1061224</v>
-      </c>
-      <c r="M141" t="n">
-        <v>5</v>
-      </c>
-      <c r="N141" t="n">
-        <v>81107168</v>
-      </c>
-      <c r="O141" t="n">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15">
-      <c r="A142" t="n">
-        <v>2781</v>
-      </c>
-      <c r="B142" t="n">
-        <v>10</v>
-      </c>
-      <c r="C142" t="s">
-        <v>126</v>
-      </c>
-      <c r="D142" t="n">
-        <v>2</v>
-      </c>
-      <c r="E142" t="n">
-        <v>17</v>
-      </c>
-      <c r="F142" t="n">
-        <v>276427</v>
-      </c>
-      <c r="G142" t="b">
-        <v>0</v>
-      </c>
-      <c r="H142" t="n">
-        <v>953540</v>
-      </c>
-      <c r="J142" t="b">
-        <v>1</v>
-      </c>
-      <c r="K142" t="n">
-        <v>668011</v>
-      </c>
-      <c r="L142" t="n">
-        <v>1313131</v>
-      </c>
-      <c r="M142" t="n">
-        <v>9</v>
-      </c>
-      <c r="N142" t="n">
-        <v>73132765</v>
-      </c>
-      <c r="O142" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
-      <c r="A143" t="n">
-        <v>2752</v>
-      </c>
-      <c r="B143" t="n">
-        <v>15</v>
-      </c>
-      <c r="C143" t="s">
-        <v>143</v>
-      </c>
-      <c r="D143" t="n">
-        <v>3</v>
-      </c>
-      <c r="E143" t="n">
-        <v>37</v>
-      </c>
-      <c r="F143" t="n">
-        <v>394671</v>
-      </c>
-      <c r="G143" t="b">
-        <v>0</v>
-      </c>
-      <c r="H143" t="n">
-        <v>49509</v>
-      </c>
-      <c r="J143" t="b">
-        <v>1</v>
-      </c>
-      <c r="K143" t="n">
-        <v>2084366</v>
-      </c>
-      <c r="L143" t="n">
-        <v>895696</v>
-      </c>
-      <c r="M143" t="n">
-        <v>15</v>
-      </c>
-      <c r="N143" t="n">
-        <v>89062294</v>
-      </c>
-      <c r="O143" t="n">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
-      <c r="A144" t="n">
-        <v>2739</v>
-      </c>
-      <c r="B144" t="n">
-        <v>20</v>
-      </c>
-      <c r="C144" t="s">
-        <v>39</v>
-      </c>
-      <c r="D144" t="n">
-        <v>4</v>
-      </c>
-      <c r="E144" t="n">
-        <v>46</v>
-      </c>
-      <c r="F144" t="n">
-        <v>182873</v>
-      </c>
-      <c r="G144" t="b">
-        <v>0</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1222279</v>
-      </c>
-      <c r="J144" t="b">
-        <v>1</v>
-      </c>
-      <c r="K144" t="n">
-        <v>573597</v>
-      </c>
-      <c r="L144" t="n">
-        <v>1526814</v>
-      </c>
-      <c r="M144" t="n">
-        <v>12</v>
-      </c>
-      <c r="N144" t="n">
-        <v>65125719</v>
-      </c>
-      <c r="O144" t="n">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15">
-      <c r="A145" t="n">
-        <v>2724</v>
-      </c>
-      <c r="B145" t="n">
-        <v>15</v>
-      </c>
-      <c r="C145" t="s">
-        <v>114</v>
-      </c>
-      <c r="D145" t="n">
-        <v>3</v>
-      </c>
-      <c r="E145" t="n">
-        <v>98</v>
-      </c>
-      <c r="F145" t="n">
-        <v>82407</v>
-      </c>
-      <c r="G145" t="b">
-        <v>0</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2300566</v>
-      </c>
-      <c r="J145" t="b">
-        <v>1</v>
-      </c>
-      <c r="K145" t="n">
-        <v>2152767</v>
-      </c>
-      <c r="L145" t="n">
-        <v>2287459</v>
-      </c>
-      <c r="M145" t="n">
-        <v>2</v>
-      </c>
-      <c r="N145" t="n">
-        <v>19663134</v>
-      </c>
-      <c r="O145" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
-      <c r="A146" t="n">
-        <v>2689</v>
-      </c>
-      <c r="B146" t="n">
-        <v>10</v>
-      </c>
-      <c r="C146" t="s">
-        <v>95</v>
-      </c>
-      <c r="D146" t="n">
-        <v>2</v>
-      </c>
-      <c r="E146" t="n">
-        <v>3</v>
-      </c>
-      <c r="F146" t="n">
-        <v>79922</v>
-      </c>
-      <c r="G146" t="b">
-        <v>0</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2200495</v>
-      </c>
-      <c r="J146" t="b">
-        <v>1</v>
-      </c>
-      <c r="K146" t="n">
-        <v>2258391</v>
-      </c>
-      <c r="L146" t="n">
-        <v>2266042</v>
-      </c>
-      <c r="M146" t="n">
-        <v>10</v>
-      </c>
-      <c r="N146" t="n">
-        <v>24669524</v>
-      </c>
-      <c r="O146" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15">
-      <c r="A147" t="n">
-        <v>2677</v>
-      </c>
-      <c r="B147" t="n">
-        <v>5</v>
-      </c>
-      <c r="C147" t="s">
-        <v>48</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1</v>
-      </c>
-      <c r="E147" t="n">
-        <v>14</v>
-      </c>
-      <c r="F147" t="n">
-        <v>258953</v>
-      </c>
-      <c r="G147" t="b">
-        <v>0</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2059152</v>
-      </c>
-      <c r="J147" t="b">
-        <v>1</v>
-      </c>
-      <c r="K147" t="n">
-        <v>23187</v>
-      </c>
-      <c r="L147" t="n">
-        <v>987201</v>
-      </c>
-      <c r="M147" t="n">
-        <v>5</v>
-      </c>
-      <c r="N147" t="n">
-        <v>84135549</v>
-      </c>
-      <c r="O147" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15">
-      <c r="A148" t="n">
-        <v>2668</v>
-      </c>
-      <c r="B148" t="n">
-        <v>10</v>
-      </c>
-      <c r="C148" t="s">
-        <v>80</v>
-      </c>
-      <c r="D148" t="n">
-        <v>2</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0</v>
-      </c>
-      <c r="F148" t="n">
-        <v>15440</v>
-      </c>
-      <c r="G148" t="b">
-        <v>0</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2326849</v>
-      </c>
-      <c r="J148" t="b">
-        <v>1</v>
-      </c>
-      <c r="K148" t="n">
-        <v>687297</v>
-      </c>
-      <c r="L148" t="n">
-        <v>2326924</v>
-      </c>
-      <c r="M148" t="n">
-        <v>2</v>
-      </c>
-      <c r="N148" t="n">
-        <v>7055641</v>
-      </c>
-      <c r="O148" t="n">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15">
-      <c r="A149" t="n">
-        <v>2665</v>
-      </c>
-      <c r="B149" t="n">
-        <v>5</v>
-      </c>
-      <c r="C149" t="s">
-        <v>156</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1</v>
-      </c>
-      <c r="E149" t="n">
-        <v>1</v>
-      </c>
-      <c r="F149" t="n">
-        <v>162755</v>
-      </c>
-      <c r="G149" t="b">
-        <v>0</v>
-      </c>
-      <c r="H149" t="n">
-        <v>421769</v>
-      </c>
-      <c r="J149" t="b">
-        <v>1</v>
-      </c>
-      <c r="K149" t="n">
-        <v>416885</v>
-      </c>
-      <c r="L149" t="n">
-        <v>926631</v>
-      </c>
-      <c r="M149" t="n">
-        <v>4</v>
-      </c>
-      <c r="N149" t="n">
-        <v>88177243</v>
-      </c>
-      <c r="O149" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15">
-      <c r="A150" t="n">
-        <v>2563</v>
-      </c>
-      <c r="B150" t="n">
-        <v>5</v>
-      </c>
-      <c r="C150" t="s">
-        <v>92</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1</v>
-      </c>
-      <c r="E150" t="n">
-        <v>136</v>
-      </c>
-      <c r="F150" t="n">
-        <v>190282</v>
-      </c>
-      <c r="G150" t="b">
-        <v>0</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="b">
-        <v>1</v>
-      </c>
-      <c r="K150" t="n">
-        <v>150283</v>
-      </c>
-      <c r="L150" t="n">
-        <v>1005465</v>
-      </c>
-      <c r="M150" t="n">
-        <v>5</v>
-      </c>
-      <c r="N150" t="n">
-        <v>82590987</v>
-      </c>
-      <c r="O150" t="n">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15">
-      <c r="A151" t="n">
-        <v>2482</v>
-      </c>
-      <c r="B151" t="n">
-        <v>5</v>
-      </c>
-      <c r="C151" t="s">
-        <v>161</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1</v>
-      </c>
-      <c r="E151" t="n">
-        <v>14</v>
-      </c>
-      <c r="F151" t="n">
-        <v>16562</v>
-      </c>
-      <c r="G151" t="b">
-        <v>0</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2074937</v>
-      </c>
-      <c r="J151" t="b">
-        <v>1</v>
-      </c>
-      <c r="K151" t="n">
-        <v>1235467</v>
-      </c>
-      <c r="L151" t="n">
-        <v>1666412</v>
-      </c>
-      <c r="M151" t="n">
-        <v>5</v>
-      </c>
-      <c r="N151" t="n">
-        <v>62383561</v>
-      </c>
-      <c r="O151" t="n">
-        <v>104</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/vamp/clan_info_all.xlsx
+++ b/vamp/clan_info_all.xlsx
@@ -15,26 +15,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>КЛАН ИСКЛЮЧЕННЫХ</t>
   </si>
   <si>
-    <t>Immortals</t>
-  </si>
-  <si>
     <t>ScorpionS</t>
   </si>
   <si>
     <t>ClanLeader</t>
   </si>
   <si>
-    <t>ROTVELLER 82</t>
-  </si>
-  <si>
     <t>Черный Граф</t>
   </si>
   <si>
+    <t>VENGEANCE</t>
+  </si>
+  <si>
     <t>Alles Luge</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Black Attraction</t>
   </si>
   <si>
-    <t>Ангел смерти</t>
-  </si>
-  <si>
     <t>ClanPointsEarned</t>
   </si>
   <si>
@@ -152,141 +146,120 @@
     <t>Camarilla</t>
   </si>
   <si>
-    <t>A_S</t>
-  </si>
-  <si>
     <t>Цербер</t>
   </si>
   <si>
     <t>HasAvatar</t>
   </si>
   <si>
+    <t>Альянс</t>
+  </si>
+  <si>
+    <t>очкошники</t>
+  </si>
+  <si>
+    <t>ДЖАВАННИ</t>
+  </si>
+  <si>
+    <t>BLACK BLOOD</t>
+  </si>
+  <si>
+    <t>Metamorph</t>
+  </si>
+  <si>
+    <t>La Dolce Vita</t>
+  </si>
+  <si>
+    <t>Born in the Dark</t>
+  </si>
+  <si>
+    <t>Saints Devils</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>_StarLight_</t>
+  </si>
+  <si>
+    <t>Вестники Смерти</t>
+  </si>
+  <si>
+    <t>__ЖАЖДА КРОВИ__</t>
+  </si>
+  <si>
+    <t>Летучие мыши</t>
+  </si>
+  <si>
+    <t>Tzimisce</t>
+  </si>
+  <si>
+    <t>Fenris Brood</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>_НоЧнЫе_АнГеЛы_</t>
+  </si>
+  <si>
+    <t>Drak</t>
+  </si>
+  <si>
+    <t>Schwarz Herz</t>
+  </si>
+  <si>
+    <t>_After dark_</t>
+  </si>
+  <si>
+    <t>Запорожье</t>
+  </si>
+  <si>
+    <t>Blood Night</t>
+  </si>
+  <si>
+    <t>GRIM FANDANGO</t>
+  </si>
+  <si>
+    <t>Весна без сна</t>
+  </si>
+  <si>
+    <t>Мертвые Ангелы</t>
+  </si>
+  <si>
+    <t>МОГУЩЕСТВО НОЧИ</t>
+  </si>
+  <si>
+    <t>_Клан Чёрной Розы_</t>
+  </si>
+  <si>
+    <t>__VaveloN__</t>
+  </si>
+  <si>
+    <t>Vampires</t>
+  </si>
+  <si>
+    <t>Empire of VOLKODLAK</t>
+  </si>
+  <si>
+    <t>Братство Инфернов</t>
+  </si>
+  <si>
     <t>Two Worlds</t>
   </si>
   <si>
-    <t>Альянс</t>
-  </si>
-  <si>
-    <t>очкошники</t>
-  </si>
-  <si>
-    <t>ДЖАВАННИ</t>
-  </si>
-  <si>
-    <t>BLACK BLOOD</t>
-  </si>
-  <si>
-    <t>Metamorph</t>
-  </si>
-  <si>
-    <t>La Dolce Vita</t>
-  </si>
-  <si>
-    <t>Born in the Dark</t>
-  </si>
-  <si>
-    <t>Saints Devils</t>
-  </si>
-  <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>_StarLight_</t>
-  </si>
-  <si>
-    <t>Демонические ангелы</t>
-  </si>
-  <si>
-    <t>Вестники Смерти</t>
-  </si>
-  <si>
-    <t>666blooddevil666</t>
-  </si>
-  <si>
-    <t>__ЖАЖДА КРОВИ__</t>
-  </si>
-  <si>
-    <t>Летучие мыши</t>
-  </si>
-  <si>
-    <t>Tzimisce</t>
-  </si>
-  <si>
-    <t>Fenris Brood</t>
-  </si>
-  <si>
-    <t>Resident Evil</t>
-  </si>
-  <si>
-    <t>_НоЧнЫе_АнГеЛы_</t>
-  </si>
-  <si>
-    <t>Drak</t>
-  </si>
-  <si>
-    <t>Schwarz Herz</t>
-  </si>
-  <si>
-    <t>_After dark_</t>
-  </si>
-  <si>
-    <t>Blood Night</t>
-  </si>
-  <si>
-    <t>GRIM FANDANGO</t>
-  </si>
-  <si>
-    <t>Весна без сна</t>
-  </si>
-  <si>
-    <t>Мертвые Ангелы</t>
-  </si>
-  <si>
-    <t>МОГУЩЕСТВО НОЧИ</t>
-  </si>
-  <si>
-    <t>_Клан Чёрной Розы_</t>
-  </si>
-  <si>
-    <t>__VaveloN__</t>
-  </si>
-  <si>
-    <t>Vampires</t>
-  </si>
-  <si>
-    <t>Empire of VOLKODLAK</t>
-  </si>
-  <si>
-    <t>Ридики</t>
-  </si>
-  <si>
-    <t>Прирожденные убийцы</t>
-  </si>
-  <si>
-    <t>Братство Инфернов</t>
-  </si>
-  <si>
-    <t>Thor Brood</t>
-  </si>
-  <si>
     <t>UNCONTROLLABLE</t>
   </si>
   <si>
     <t>Lunar Empire</t>
   </si>
   <si>
-    <t>Шепот Ночи</t>
-  </si>
-  <si>
     <t>WhiteVampires</t>
   </si>
   <si>
     <t>Hahik</t>
   </si>
   <si>
-    <t>ДЗО ГРЕХА Хаос Инк</t>
-  </si>
-  <si>
     <t>OLDSCOOL</t>
   </si>
   <si>
@@ -302,21 +275,12 @@
     <t>13thLegion</t>
   </si>
   <si>
-    <t>RAGNAROG</t>
-  </si>
-  <si>
     <t>Спарта</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Демоны Ночи</t>
-  </si>
-  <si>
-    <t>Hired assassin</t>
-  </si>
-  <si>
     <t>_ASSASSINS_</t>
   </si>
   <si>
@@ -374,37 +338,28 @@
     <t>Cranberry</t>
   </si>
   <si>
-    <t>Кузня демонов</t>
-  </si>
-  <si>
     <t>Наследие Каина</t>
   </si>
   <si>
+    <t>Лунная Соната</t>
+  </si>
+  <si>
+    <t>Black_Lotus</t>
+  </si>
+  <si>
+    <t>Тремер</t>
+  </si>
+  <si>
+    <t>Tiamat Brood</t>
+  </si>
+  <si>
+    <t>Орден монахов</t>
+  </si>
+  <si>
+    <t>Neytral</t>
+  </si>
+  <si>
     <t>CreationDate</t>
-  </si>
-  <si>
-    <t>Лунная Соната</t>
-  </si>
-  <si>
-    <t>Black_Lotus</t>
-  </si>
-  <si>
-    <t>Тремер</t>
-  </si>
-  <si>
-    <t>Tiamat Brood</t>
-  </si>
-  <si>
-    <t>Орден монахов</t>
-  </si>
-  <si>
-    <t>Аствэ Ин Раг</t>
-  </si>
-  <si>
-    <t>Brain Defloration</t>
-  </si>
-  <si>
-    <t>ДП 50</t>
   </si>
   <si>
     <t>Ведьмы</t>
@@ -773,49 +728,49 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="O1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -826,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -835,7 +790,7 @@
         <v>131</v>
       </c>
       <c r="F2" t="n">
-        <v>43240</v>
+        <v>47401</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -856,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>54302663</v>
+        <v>58648455</v>
       </c>
       <c r="O2" t="n">
         <v>5</v>
@@ -864,178 +819,178 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="n">
-        <v>5197</v>
+        <v>5519</v>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>915</v>
+        <v>620</v>
       </c>
       <c r="F3" t="n">
-        <v>1437306</v>
+        <v>452036</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1080741</v>
+        <v>1833643</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1289915</v>
+        <v>946931</v>
       </c>
       <c r="L3" t="n">
-        <v>1349474</v>
+        <v>2244278</v>
       </c>
       <c r="M3" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="N3" t="n">
-        <v>85148929</v>
+        <v>47503828</v>
       </c>
       <c r="O3" t="n">
-        <v>461</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="n">
-        <v>5138</v>
+        <v>5302</v>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>557</v>
+        <v>1154</v>
       </c>
       <c r="F4" t="n">
-        <v>370868</v>
+        <v>1469718</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1833643</v>
+        <v>1391068</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>946931</v>
+        <v>1400081</v>
       </c>
       <c r="L4" t="n">
-        <v>2244278</v>
+        <v>1220531</v>
       </c>
       <c r="M4" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N4" t="n">
-        <v>43158036</v>
+        <v>94604148</v>
       </c>
       <c r="O4" t="n">
-        <v>183</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="n">
-        <v>4946</v>
+        <v>5156</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>1109</v>
+        <v>973</v>
       </c>
       <c r="F5" t="n">
-        <v>1398636</v>
+        <v>1494035</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1391068</v>
+        <v>1080741</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1150998</v>
+        <v>1289915</v>
       </c>
       <c r="L5" t="n">
-        <v>1220531</v>
+        <v>1349474</v>
       </c>
       <c r="M5" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N5" t="n">
-        <v>90258356</v>
+        <v>89494721</v>
       </c>
       <c r="O5" t="n">
-        <v>665</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="n">
-        <v>4763</v>
+        <v>4789</v>
       </c>
       <c r="B6" t="n">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>592</v>
+        <v>101</v>
       </c>
       <c r="F6" t="n">
-        <v>729579</v>
+        <v>129120</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2260748</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1327102</v>
+        <v>2094824</v>
       </c>
       <c r="L6" t="n">
-        <v>2179401</v>
+        <v>2333933</v>
       </c>
       <c r="M6" t="n">
         <v>24</v>
       </c>
       <c r="N6" t="n">
-        <v>54484923</v>
+        <v>22892467</v>
       </c>
       <c r="O6" t="n">
-        <v>221</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1046,16 +1001,16 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>1399</v>
+        <v>1557</v>
       </c>
       <c r="F7" t="n">
-        <v>692874</v>
+        <v>720164</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1073,825 +1028,825 @@
         <v>2181920</v>
       </c>
       <c r="M7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N7" t="n">
-        <v>54044263</v>
+        <v>58390055</v>
       </c>
       <c r="O7" t="n">
-        <v>356</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="n">
-        <v>4678</v>
+        <v>4728</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>58</v>
+        <v>654</v>
       </c>
       <c r="F8" t="n">
-        <v>109900</v>
+        <v>777800</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2290738</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>2345950</v>
+        <v>2267292</v>
       </c>
       <c r="L8" t="n">
-        <v>2257416</v>
+        <v>2179401</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="N8" t="n">
-        <v>40393689</v>
+        <v>58830715</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="n">
-        <v>4564</v>
+        <v>4655</v>
       </c>
       <c r="B9" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>474</v>
+        <v>1484</v>
       </c>
       <c r="F9" t="n">
-        <v>633429</v>
+        <v>2630594</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2135375</v>
+        <v>1824790</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>2209386</v>
+        <v>986741</v>
       </c>
       <c r="L9" t="n">
-        <v>1163102</v>
+        <v>1175663</v>
       </c>
       <c r="M9" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>92079143</v>
+        <v>95931618</v>
       </c>
       <c r="O9" t="n">
-        <v>325</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="n">
-        <v>4561</v>
+        <v>4552</v>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>1110</v>
+        <v>868</v>
       </c>
       <c r="F10" t="n">
-        <v>2548941</v>
+        <v>1212926</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>366351</v>
+        <v>952963</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>213920</v>
+        <v>635898</v>
       </c>
       <c r="L10" t="n">
-        <v>874183</v>
+        <v>1525248</v>
       </c>
       <c r="M10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>103233442</v>
+        <v>83129980</v>
       </c>
       <c r="O10" t="n">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="n">
-        <v>4518</v>
+        <v>4445</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>1413</v>
+        <v>1137</v>
       </c>
       <c r="F11" t="n">
-        <v>2535463</v>
+        <v>2579014</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1824790</v>
+        <v>366351</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>986741</v>
+        <v>213920</v>
       </c>
       <c r="L11" t="n">
-        <v>1175663</v>
+        <v>874183</v>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="N11" t="n">
-        <v>91585826</v>
+        <v>107579234</v>
       </c>
       <c r="O11" t="n">
-        <v>633</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="n">
-        <v>4488</v>
+        <v>4419</v>
       </c>
       <c r="B12" t="n">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" t="n">
         <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="F12" t="n">
-        <v>47408</v>
+        <v>1417790</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2094824</v>
+        <v>128537</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>2260748</v>
+        <v>2099116</v>
       </c>
       <c r="L12" t="n">
-        <v>2333933</v>
+        <v>888882</v>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N12" t="n">
-        <v>18546675</v>
+        <v>107212440</v>
       </c>
       <c r="O12" t="n">
-        <v>18</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="n">
-        <v>4453</v>
+        <v>4275</v>
       </c>
       <c r="B13" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>829</v>
+        <v>418</v>
       </c>
       <c r="F13" t="n">
-        <v>1183380</v>
+        <v>276193</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>952963</v>
+        <v>2208352</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>635898</v>
+        <v>2135375</v>
       </c>
       <c r="L13" t="n">
-        <v>1525248</v>
+        <v>2258439</v>
       </c>
       <c r="M13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N13" t="n">
-        <v>78784188</v>
+        <v>44143270</v>
       </c>
       <c r="O13" t="n">
-        <v>278</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="n">
-        <v>4302</v>
+        <v>4263</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>129</v>
+        <v>741</v>
       </c>
       <c r="F14" t="n">
-        <v>1377743</v>
+        <v>752995</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>128537</v>
+        <v>2277181</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>2099116</v>
+        <v>324616</v>
       </c>
       <c r="L14" t="n">
-        <v>888882</v>
+        <v>878569</v>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N14" t="n">
-        <v>102866648</v>
+        <v>107459969</v>
       </c>
       <c r="O14" t="n">
-        <v>107</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="n">
-        <v>4279</v>
+        <v>4262</v>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="F15" t="n">
-        <v>2796777</v>
+        <v>2610555</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1072986</v>
+        <v>1172606</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>283813</v>
+        <v>1127436</v>
       </c>
       <c r="L15" t="n">
-        <v>882812</v>
+        <v>879702</v>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
-        <v>102979180</v>
+        <v>107406113</v>
       </c>
       <c r="O15" t="n">
-        <v>408</v>
+        <v>587</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="n">
-        <v>4253</v>
+        <v>4239</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>696</v>
+        <v>84</v>
       </c>
       <c r="F16" t="n">
-        <v>737560</v>
+        <v>76797</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1079295</v>
+        <v>2239163</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>324616</v>
+        <v>2112489</v>
       </c>
       <c r="L16" t="n">
-        <v>878569</v>
+        <v>2334032</v>
       </c>
       <c r="M16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N16" t="n">
-        <v>103114177</v>
+        <v>22868918</v>
       </c>
       <c r="O16" t="n">
-        <v>375</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="n">
-        <v>4180</v>
+        <v>4144</v>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>1912</v>
+        <v>1043</v>
       </c>
       <c r="F17" t="n">
-        <v>654122</v>
+        <v>2838792</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1885923</v>
+        <v>1072986</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>1395783</v>
+        <v>283813</v>
       </c>
       <c r="L17" t="n">
-        <v>1471325</v>
+        <v>882812</v>
       </c>
       <c r="M17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>80398895</v>
+        <v>107324972</v>
       </c>
       <c r="O17" t="n">
-        <v>1047</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="n">
-        <v>4179</v>
+        <v>4094</v>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>77</v>
+        <v>2111</v>
       </c>
       <c r="F18" t="n">
-        <v>65271</v>
+        <v>675773</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>2239163</v>
+        <v>1885923</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>2112489</v>
+        <v>1395783</v>
       </c>
       <c r="L18" t="n">
-        <v>2334032</v>
+        <v>1471325</v>
       </c>
       <c r="M18" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N18" t="n">
-        <v>18523126</v>
+        <v>84744687</v>
       </c>
       <c r="O18" t="n">
-        <v>51</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="n">
-        <v>4166</v>
+        <v>4073</v>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>130</v>
+      </c>
+      <c r="F19" t="n">
+        <v>87830</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>272384</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2275320</v>
+      </c>
+      <c r="M19" t="n">
         <v>3</v>
       </c>
-      <c r="E19" t="n">
-        <v>423</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3093309</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>348561</v>
-      </c>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2152767</v>
-      </c>
-      <c r="L19" t="n">
-        <v>875301</v>
-      </c>
-      <c r="M19" t="n">
-        <v>15</v>
-      </c>
       <c r="N19" t="n">
-        <v>103213913</v>
+        <v>40534987</v>
       </c>
       <c r="O19" t="n">
-        <v>479</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="n">
-        <v>4141</v>
+        <v>4052</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>976</v>
+        <v>22</v>
       </c>
       <c r="F20" t="n">
-        <v>2581766</v>
+        <v>16072</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1172606</v>
+        <v>0</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>1127436</v>
+        <v>2349543</v>
       </c>
       <c r="L20" t="n">
-        <v>879702</v>
+        <v>2352925</v>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>103060321</v>
+        <v>6146927</v>
       </c>
       <c r="O20" t="n">
-        <v>554</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="n">
-        <v>4085</v>
+        <v>4043</v>
       </c>
       <c r="B21" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>379</v>
+        <v>145</v>
       </c>
       <c r="F21" t="n">
-        <v>465599</v>
+        <v>242627</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1352486</v>
+        <v>0</v>
       </c>
       <c r="J21" t="b">
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>444353</v>
+        <v>290069</v>
       </c>
       <c r="L21" t="n">
-        <v>2305033</v>
+        <v>2251470</v>
       </c>
       <c r="M21" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
-        <v>27888900</v>
+        <v>46044522</v>
       </c>
       <c r="O21" t="n">
-        <v>301</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="n">
-        <v>4062</v>
+        <v>3971</v>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>212</v>
+        <v>423</v>
       </c>
       <c r="F22" t="n">
-        <v>214670</v>
+        <v>3101300</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>59210</v>
+        <v>38023</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>146812</v>
+        <v>2152767</v>
       </c>
       <c r="L22" t="n">
-        <v>1623894</v>
+        <v>875301</v>
       </c>
       <c r="M22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N22" t="n">
-        <v>76772828</v>
+        <v>107559705</v>
       </c>
       <c r="O22" t="n">
-        <v>290</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="n">
-        <v>4058</v>
+        <v>3923</v>
       </c>
       <c r="B23" t="n">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="D23" t="n">
         <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="F23" t="n">
-        <v>225979</v>
+        <v>227572</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2353593</v>
       </c>
       <c r="J23" t="b">
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>290069</v>
+        <v>146812</v>
       </c>
       <c r="L23" t="n">
-        <v>2251470</v>
+        <v>1623894</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N23" t="n">
-        <v>41698730</v>
+        <v>81118620</v>
       </c>
       <c r="O23" t="n">
-        <v>205</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="n">
-        <v>3975</v>
+        <v>3856</v>
       </c>
       <c r="B24" t="n">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>357</v>
+        <v>90</v>
       </c>
       <c r="F24" t="n">
-        <v>245042</v>
+        <v>190564</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2212162</v>
+        <v>2095974</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>2266078</v>
+        <v>2259217</v>
       </c>
       <c r="L24" t="n">
-        <v>2258439</v>
+        <v>2316926</v>
       </c>
       <c r="M24" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N24" t="n">
-        <v>39797478</v>
+        <v>28703280</v>
       </c>
       <c r="O24" t="n">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="n">
-        <v>3884</v>
+        <v>3817</v>
       </c>
       <c r="B25" t="n">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>797</v>
+        <v>63</v>
       </c>
       <c r="F25" t="n">
-        <v>521848</v>
+        <v>119910</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>776779</v>
+        <v>1906563</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>1388385</v>
+        <v>2153455</v>
       </c>
       <c r="L25" t="n">
-        <v>897885</v>
+        <v>2171732</v>
       </c>
       <c r="M25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N25" t="n">
-        <v>102542056</v>
+        <v>60205815</v>
       </c>
       <c r="O25" t="n">
-        <v>349</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="n">
-        <v>3818</v>
+        <v>3797</v>
       </c>
       <c r="B26" t="n">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="F26" t="n">
-        <v>125921</v>
+        <v>146381</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1912,318 +1867,318 @@
         <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>25558255</v>
+        <v>29904047</v>
       </c>
       <c r="O26" t="n">
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="n">
-        <v>3778</v>
+        <v>3789</v>
       </c>
       <c r="B27" t="n">
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="D27" t="n">
         <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>220</v>
+        <v>483</v>
       </c>
       <c r="F27" t="n">
-        <v>170078</v>
+        <v>426427</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>257971</v>
+        <v>943858</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>319817</v>
+        <v>942519</v>
       </c>
       <c r="L27" t="n">
-        <v>2242561</v>
+        <v>1005140</v>
       </c>
       <c r="M27" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N27" t="n">
-        <v>43574752</v>
+        <v>100530056</v>
       </c>
       <c r="O27" t="n">
-        <v>354</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="n">
-        <v>3770</v>
+        <v>3787</v>
       </c>
       <c r="B28" t="n">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D28" t="n">
         <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>686</v>
+        <v>415</v>
       </c>
       <c r="F28" t="n">
-        <v>742388</v>
+        <v>481960</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2065590</v>
+        <v>1352486</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>1988071</v>
+        <v>444353</v>
       </c>
       <c r="L28" t="n">
-        <v>874189</v>
+        <v>2305033</v>
       </c>
       <c r="M28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N28" t="n">
-        <v>103233162</v>
+        <v>32234692</v>
       </c>
       <c r="O28" t="n">
-        <v>421</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="n">
-        <v>3770</v>
+        <v>3765</v>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>802</v>
+        <v>239</v>
       </c>
       <c r="F29" t="n">
-        <v>188794</v>
+        <v>185118</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>943125</v>
+        <v>257971</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>941644</v>
+        <v>319817</v>
       </c>
       <c r="L29" t="n">
-        <v>1466624</v>
+        <v>2242561</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N29" t="n">
-        <v>80529185</v>
+        <v>47920544</v>
       </c>
       <c r="O29" t="n">
-        <v>1240</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="n">
-        <v>3760</v>
+        <v>3758</v>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>92</v>
+        <v>587</v>
       </c>
       <c r="F30" t="n">
-        <v>104384</v>
+        <v>1738292</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>507932</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>2242388</v>
+        <v>442133</v>
       </c>
       <c r="L30" t="n">
-        <v>2247840</v>
+        <v>882098</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="N30" t="n">
-        <v>42434266</v>
+        <v>107366783</v>
       </c>
       <c r="O30" t="n">
-        <v>104</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="n">
-        <v>3753</v>
+        <v>3731</v>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>74</v>
+        <v>2464</v>
       </c>
       <c r="F31" t="n">
-        <v>381186</v>
+        <v>819760</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2092694</v>
+        <v>467048</v>
       </c>
       <c r="J31" t="b">
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>380077</v>
+        <v>209095</v>
       </c>
       <c r="L31" t="n">
-        <v>888961</v>
+        <v>1174679</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N31" t="n">
-        <v>102865296</v>
+        <v>95988205</v>
       </c>
       <c r="O31" t="n">
-        <v>43</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="n">
-        <v>3747</v>
+        <v>3726</v>
       </c>
       <c r="B32" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>85</v>
+        <v>820</v>
       </c>
       <c r="F32" t="n">
-        <v>155239</v>
+        <v>537778</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2095974</v>
+        <v>776779</v>
       </c>
       <c r="J32" t="b">
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>2259217</v>
+        <v>1388385</v>
       </c>
       <c r="L32" t="n">
-        <v>2316926</v>
+        <v>897885</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N32" t="n">
-        <v>24357488</v>
+        <v>106887848</v>
       </c>
       <c r="O32" t="n">
-        <v>163</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="n">
-        <v>3715</v>
+        <v>3703</v>
       </c>
       <c r="B33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>572</v>
+        <v>713</v>
       </c>
       <c r="F33" t="n">
-        <v>1711059</v>
+        <v>766772</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>507932</v>
+        <v>2065590</v>
       </c>
       <c r="J33" t="b">
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>442133</v>
+        <v>1988071</v>
       </c>
       <c r="L33" t="n">
-        <v>882098</v>
+        <v>874189</v>
       </c>
       <c r="M33" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="N33" t="n">
-        <v>103020991</v>
+        <v>107578954</v>
       </c>
       <c r="O33" t="n">
-        <v>362</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2234,7 +2189,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -2243,19 +2198,19 @@
         <v>239</v>
       </c>
       <c r="F34" t="n">
-        <v>403592</v>
+        <v>405531</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1995991</v>
       </c>
       <c r="J34" t="b">
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>342779</v>
+        <v>1462981</v>
       </c>
       <c r="L34" t="n">
         <v>1524721</v>
@@ -2264,7 +2219,7 @@
         <v>5</v>
       </c>
       <c r="N34" t="n">
-        <v>78842117</v>
+        <v>83187909</v>
       </c>
       <c r="O34" t="n">
         <v>275</v>
@@ -2272,277 +2227,277 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" t="n">
-        <v>3691</v>
+        <v>3668</v>
       </c>
       <c r="B35" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>449</v>
+        <v>396</v>
       </c>
       <c r="F35" t="n">
-        <v>975944</v>
+        <v>476015</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>22838</v>
+        <v>114726</v>
       </c>
       <c r="J35" t="b">
         <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>4554</v>
+        <v>14320</v>
       </c>
       <c r="L35" t="n">
-        <v>878783</v>
+        <v>874122</v>
       </c>
       <c r="M35" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="N35" t="n">
-        <v>103089281</v>
+        <v>107580505</v>
       </c>
       <c r="O35" t="n">
-        <v>288</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="n">
-        <v>3678</v>
+        <v>3662</v>
       </c>
       <c r="B36" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>2440</v>
+        <v>110</v>
       </c>
       <c r="F36" t="n">
-        <v>804271</v>
+        <v>121390</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>467048</v>
+        <v>-1</v>
       </c>
       <c r="J36" t="b">
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>209095</v>
+        <v>2040165</v>
       </c>
       <c r="L36" t="n">
-        <v>1174679</v>
+        <v>2134299</v>
       </c>
       <c r="M36" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N36" t="n">
-        <v>91642413</v>
+        <v>64534996</v>
       </c>
       <c r="O36" t="n">
-        <v>436</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="n">
-        <v>3662</v>
+        <v>3646</v>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E37" t="n">
-        <v>110</v>
+        <v>451</v>
       </c>
       <c r="F37" t="n">
-        <v>117297</v>
+        <v>1002152</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-1</v>
+        <v>22838</v>
       </c>
       <c r="J37" t="b">
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>2040165</v>
+        <v>4554</v>
       </c>
       <c r="L37" t="n">
-        <v>2134299</v>
+        <v>878783</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N37" t="n">
-        <v>60189204</v>
+        <v>107435073</v>
       </c>
       <c r="O37" t="n">
-        <v>133</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="n">
-        <v>3659</v>
+        <v>3607</v>
       </c>
       <c r="B38" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>457</v>
+        <v>644</v>
       </c>
       <c r="F38" t="n">
-        <v>410399</v>
+        <v>334750</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>943858</v>
+        <v>127680</v>
       </c>
       <c r="J38" t="b">
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>942519</v>
+        <v>340464</v>
       </c>
       <c r="L38" t="n">
-        <v>1005140</v>
+        <v>974437</v>
       </c>
       <c r="M38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N38" t="n">
-        <v>96184264</v>
+        <v>103200758</v>
       </c>
       <c r="O38" t="n">
-        <v>308</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="n">
-        <v>3607</v>
+        <v>3528</v>
       </c>
       <c r="B39" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>488</v>
+        <v>832</v>
       </c>
       <c r="F39" t="n">
-        <v>320762</v>
+        <v>194997</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1473438</v>
+        <v>943125</v>
       </c>
       <c r="J39" t="b">
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>1282456</v>
+        <v>941644</v>
       </c>
       <c r="L39" t="n">
-        <v>1471867</v>
+        <v>1466624</v>
       </c>
       <c r="M39" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N39" t="n">
-        <v>80352460</v>
+        <v>84874977</v>
       </c>
       <c r="O39" t="n">
-        <v>272</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" t="n">
-        <v>3600</v>
+        <v>3519</v>
       </c>
       <c r="B40" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>533</v>
+        <v>51</v>
       </c>
       <c r="F40" t="n">
-        <v>181358</v>
+        <v>375896</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2301182</v>
+        <v>0</v>
       </c>
       <c r="J40" t="b">
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>1376994</v>
+        <v>876947</v>
       </c>
       <c r="L40" t="n">
-        <v>2304754</v>
+        <v>1080419</v>
       </c>
       <c r="M40" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N40" t="n">
-        <v>27987184</v>
+        <v>98643972</v>
       </c>
       <c r="O40" t="n">
-        <v>194</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="n">
-        <v>3588</v>
+        <v>3516</v>
       </c>
       <c r="B41" t="n">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D41" t="n">
         <v>3</v>
@@ -2551,7 +2506,7 @@
         <v>181</v>
       </c>
       <c r="F41" t="n">
-        <v>2385942</v>
+        <v>2422537</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
@@ -2572,1746 +2527,1746 @@
         <v>12</v>
       </c>
       <c r="N41" t="n">
-        <v>103123365</v>
+        <v>107469157</v>
       </c>
       <c r="O41" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" t="n">
-        <v>3580</v>
+        <v>3499</v>
       </c>
       <c r="B42" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>394</v>
+        <v>537</v>
       </c>
       <c r="F42" t="n">
-        <v>468767</v>
+        <v>183388</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>114726</v>
+        <v>2326477</v>
       </c>
       <c r="J42" t="b">
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>14320</v>
+        <v>1376994</v>
       </c>
       <c r="L42" t="n">
-        <v>874122</v>
+        <v>2304754</v>
       </c>
       <c r="M42" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N42" t="n">
-        <v>103234713</v>
+        <v>32332976</v>
       </c>
       <c r="O42" t="n">
-        <v>183</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" t="n">
-        <v>3580</v>
+        <v>3496</v>
       </c>
       <c r="B43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" t="n">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="F43" t="n">
-        <v>107802</v>
+        <v>242273</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1906563</v>
+        <v>2068785</v>
       </c>
       <c r="J43" t="b">
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>2153455</v>
+        <v>1690547</v>
       </c>
       <c r="L43" t="n">
-        <v>2171732</v>
+        <v>2196555</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N43" t="n">
-        <v>55860023</v>
+        <v>55927293</v>
       </c>
       <c r="O43" t="n">
-        <v>149</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" t="n">
-        <v>3543</v>
+        <v>3480</v>
       </c>
       <c r="B44" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="F44" t="n">
-        <v>236848</v>
+        <v>300378</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2068785</v>
+        <v>1012267</v>
       </c>
       <c r="J44" t="b">
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>1690547</v>
+        <v>698213</v>
       </c>
       <c r="L44" t="n">
-        <v>2196555</v>
+        <v>1391780</v>
       </c>
       <c r="M44" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N44" t="n">
-        <v>51581501</v>
+        <v>87596321</v>
       </c>
       <c r="O44" t="n">
-        <v>225</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" t="n">
-        <v>3541</v>
+        <v>3473</v>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>632</v>
+        <v>51</v>
       </c>
       <c r="F45" t="n">
-        <v>325918</v>
+        <v>165042</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>127680</v>
+        <v>2322003</v>
       </c>
       <c r="J45" t="b">
         <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>340464</v>
+        <v>2093856</v>
       </c>
       <c r="L45" t="n">
-        <v>974437</v>
+        <v>2200798</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N45" t="n">
-        <v>98854966</v>
+        <v>55391000</v>
       </c>
       <c r="O45" t="n">
-        <v>344</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="n">
-        <v>3541</v>
+        <v>3432</v>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>113</v>
+        <v>272</v>
       </c>
       <c r="F46" t="n">
-        <v>339906</v>
+        <v>386803</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>244005</v>
+        <v>963710</v>
       </c>
       <c r="J46" t="b">
         <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>744232</v>
+        <v>1349405</v>
       </c>
       <c r="L46" t="n">
-        <v>955874</v>
+        <v>1647665</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N46" t="n">
-        <v>100379340</v>
+        <v>80691351</v>
       </c>
       <c r="O46" t="n">
-        <v>120</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" t="n">
-        <v>3540</v>
+        <v>3429</v>
       </c>
       <c r="B47" t="n">
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>248</v>
+        <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>131081</v>
+        <v>113240</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>2344135</v>
+        <v>350912</v>
       </c>
       <c r="J47" t="b">
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>2245119</v>
+        <v>135571</v>
       </c>
       <c r="L47" t="n">
-        <v>1806633</v>
+        <v>1298602</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="n">
-        <v>72925769</v>
+        <v>91636846</v>
       </c>
       <c r="O47" t="n">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" t="n">
-        <v>3531</v>
+        <v>3424</v>
       </c>
       <c r="B48" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>270</v>
+        <v>188</v>
       </c>
       <c r="F48" t="n">
-        <v>377538</v>
+        <v>1020268</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>963710</v>
+        <v>290355</v>
       </c>
       <c r="J48" t="b">
         <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>1349405</v>
+        <v>286635</v>
       </c>
       <c r="L48" t="n">
-        <v>1647665</v>
+        <v>874132</v>
       </c>
       <c r="M48" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N48" t="n">
-        <v>76345559</v>
+        <v>107580190</v>
       </c>
       <c r="O48" t="n">
-        <v>156</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="n">
-        <v>3523</v>
+        <v>3349</v>
       </c>
       <c r="B49" t="n">
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
       </c>
       <c r="E49" t="n">
+        <v>223</v>
+      </c>
+      <c r="F49" t="n">
+        <v>319465</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>338811</v>
+      </c>
+      <c r="J49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>406920</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2098251</v>
+      </c>
+      <c r="M49" t="n">
         <v>10</v>
       </c>
-      <c r="F49" t="n">
-        <v>11708</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="b">
-        <v>1</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1364256</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2346070</v>
-      </c>
-      <c r="M49" t="n">
-        <v>3</v>
-      </c>
       <c r="N49" t="n">
-        <v>11909592</v>
+        <v>67552241</v>
       </c>
       <c r="O49" t="n">
-        <v>2</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" t="n">
-        <v>3519</v>
+        <v>3339</v>
       </c>
       <c r="B50" t="n">
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>51</v>
+        <v>524</v>
       </c>
       <c r="F50" t="n">
-        <v>372681</v>
+        <v>2406821</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>546593</v>
       </c>
       <c r="J50" t="b">
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>876947</v>
+        <v>346748</v>
       </c>
       <c r="L50" t="n">
-        <v>1080419</v>
+        <v>886783</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="n">
-        <v>94298180</v>
+        <v>107241005</v>
       </c>
       <c r="O50" t="n">
-        <v>130</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" t="n">
-        <v>3519</v>
+        <v>3333</v>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F51" t="n">
-        <v>196230</v>
+        <v>288591</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>430188</v>
+        <v>2343361</v>
       </c>
       <c r="J51" t="b">
         <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>313793</v>
+        <v>978906</v>
       </c>
       <c r="L51" t="n">
-        <v>967727</v>
+        <v>936156</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="n">
-        <v>99433249</v>
+        <v>105776875</v>
       </c>
       <c r="O51" t="n">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" t="n">
-        <v>3518</v>
+        <v>3287</v>
       </c>
       <c r="B52" t="n">
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="D52" t="n">
         <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>112</v>
+        <v>361</v>
       </c>
       <c r="F52" t="n">
-        <v>75540</v>
+        <v>557918</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1367611</v>
       </c>
       <c r="J52" t="b">
         <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>2245029</v>
+        <v>539572</v>
       </c>
       <c r="L52" t="n">
-        <v>2275320</v>
+        <v>1332289</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N52" t="n">
-        <v>36189195</v>
+        <v>90263876</v>
       </c>
       <c r="O52" t="n">
-        <v>244</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" t="n">
-        <v>3516</v>
+        <v>3285</v>
       </c>
       <c r="B53" t="n">
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>75</v>
+        <v>2341</v>
       </c>
       <c r="F53" t="n">
-        <v>281744</v>
+        <v>1485966</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1014325</v>
       </c>
       <c r="J53" t="b">
         <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>978906</v>
+        <v>2289845</v>
       </c>
       <c r="L53" t="n">
-        <v>936156</v>
+        <v>874313</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N53" t="n">
-        <v>101431083</v>
+        <v>107576595</v>
       </c>
       <c r="O53" t="n">
-        <v>56</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" t="n">
-        <v>3510</v>
+        <v>3273</v>
       </c>
       <c r="B54" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F54" t="n">
-        <v>125129</v>
+        <v>569708</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>2258385</v>
+        <v>68233</v>
       </c>
       <c r="J54" t="b">
         <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>2258391</v>
+        <v>394030</v>
       </c>
       <c r="L54" t="n">
-        <v>2266042</v>
+        <v>875820</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N54" t="n">
-        <v>38228572</v>
+        <v>107548853</v>
       </c>
       <c r="O54" t="n">
-        <v>203</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" t="n">
-        <v>3499</v>
+        <v>3267</v>
       </c>
       <c r="B55" t="n">
         <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="D55" t="n">
         <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="F55" t="n">
-        <v>196589</v>
+        <v>201805</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>668427</v>
+        <v>1325667</v>
       </c>
       <c r="J55" t="b">
         <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>439279</v>
+        <v>889122</v>
       </c>
       <c r="L55" t="n">
-        <v>1540559</v>
+        <v>1814278</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N55" t="n">
-        <v>77890826</v>
+        <v>77089117</v>
       </c>
       <c r="O55" t="n">
-        <v>316</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" t="n">
-        <v>3488</v>
+        <v>3263</v>
       </c>
       <c r="B56" t="n">
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D56" t="n">
         <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="F56" t="n">
-        <v>8199</v>
+        <v>239473</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>299719</v>
       </c>
       <c r="J56" t="b">
         <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>742217</v>
+        <v>104873</v>
       </c>
       <c r="L56" t="n">
-        <v>2352925</v>
+        <v>920515</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N56" t="n">
-        <v>1801135</v>
+        <v>106240030</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="n">
-        <v>3480</v>
+        <v>3253</v>
       </c>
       <c r="B57" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="F57" t="n">
-        <v>292217</v>
+        <v>203555</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1012267</v>
+        <v>0</v>
       </c>
       <c r="J57" t="b">
         <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>698213</v>
+        <v>668427</v>
       </c>
       <c r="L57" t="n">
-        <v>1391780</v>
+        <v>1540559</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="n">
-        <v>83250529</v>
+        <v>82236618</v>
       </c>
       <c r="O57" t="n">
-        <v>67</v>
+        <v>407</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" t="n">
-        <v>3465</v>
+        <v>3248</v>
       </c>
       <c r="B58" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>549</v>
+        <v>31</v>
       </c>
       <c r="F58" t="n">
-        <v>251534</v>
+        <v>36530</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2335787</v>
       </c>
       <c r="J58" t="b">
         <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>2289678</v>
+        <v>2291323</v>
       </c>
       <c r="L58" t="n">
-        <v>1361504</v>
+        <v>2345393</v>
       </c>
       <c r="M58" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N58" t="n">
-        <v>84654583</v>
+        <v>16767363</v>
       </c>
       <c r="O58" t="n">
-        <v>535</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" t="n">
-        <v>3429</v>
+        <v>3246</v>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E59" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F59" t="n">
-        <v>108466</v>
+        <v>100875</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>350912</v>
+        <v>2028175</v>
       </c>
       <c r="J59" t="b">
         <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>135571</v>
+        <v>2179683</v>
       </c>
       <c r="L59" t="n">
-        <v>1298602</v>
+        <v>2258736</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N59" t="n">
-        <v>87291054</v>
+        <v>44063445</v>
       </c>
       <c r="O59" t="n">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" t="n">
-        <v>3424</v>
+        <v>3239</v>
       </c>
       <c r="B60" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="F60" t="n">
-        <v>1012633</v>
+        <v>156870</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>290355</v>
+        <v>0</v>
       </c>
       <c r="J60" t="b">
         <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>286635</v>
+        <v>810983</v>
       </c>
       <c r="L60" t="n">
-        <v>874132</v>
+        <v>2222510</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N60" t="n">
-        <v>103234398</v>
+        <v>51784163</v>
       </c>
       <c r="O60" t="n">
-        <v>52</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="n">
-        <v>3387</v>
+        <v>3228</v>
       </c>
       <c r="B61" t="n">
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D61" t="n">
         <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F61" t="n">
-        <v>314914</v>
+        <v>141068</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>338811</v>
+        <v>1666548</v>
       </c>
       <c r="J61" t="b">
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>406920</v>
+        <v>1654863</v>
       </c>
       <c r="L61" t="n">
-        <v>2098251</v>
+        <v>2179201</v>
       </c>
       <c r="M61" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N61" t="n">
-        <v>63206449</v>
+        <v>58845313</v>
       </c>
       <c r="O61" t="n">
-        <v>282</v>
+        <v>527</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" t="n">
-        <v>3378</v>
+        <v>3221</v>
       </c>
       <c r="B62" t="n">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3</v>
+      </c>
+      <c r="E62" t="n">
+        <v>253</v>
+      </c>
+      <c r="F62" t="n">
+        <v>298910</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1976173</v>
+      </c>
+      <c r="J62" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1614280</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1053262</v>
+      </c>
+      <c r="M62" t="n">
         <v>10</v>
       </c>
-      <c r="C62" t="s">
-        <v>75</v>
-      </c>
-      <c r="D62" t="n">
-        <v>2</v>
-      </c>
-      <c r="E62" t="n">
-        <v>361</v>
-      </c>
-      <c r="F62" t="n">
-        <v>549392</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1367611</v>
-      </c>
-      <c r="J62" t="b">
-        <v>1</v>
-      </c>
-      <c r="K62" t="n">
-        <v>539572</v>
-      </c>
-      <c r="L62" t="n">
-        <v>1332289</v>
-      </c>
-      <c r="M62" t="n">
-        <v>9</v>
-      </c>
       <c r="N62" t="n">
-        <v>85918084</v>
+        <v>99173542</v>
       </c>
       <c r="O62" t="n">
-        <v>335</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" t="n">
-        <v>3347</v>
+        <v>3219</v>
       </c>
       <c r="B63" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F63" t="n">
-        <v>144819</v>
+        <v>72966</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>2322003</v>
+        <v>1337644</v>
       </c>
       <c r="J63" t="b">
         <v>1</v>
       </c>
       <c r="K63" t="n">
-        <v>2093856</v>
+        <v>1065279</v>
       </c>
       <c r="L63" t="n">
-        <v>2200798</v>
+        <v>2265323</v>
       </c>
       <c r="M63" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N63" t="n">
-        <v>51045208</v>
+        <v>42691134</v>
       </c>
       <c r="O63" t="n">
-        <v>155</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" t="n">
-        <v>3342</v>
+        <v>3217</v>
       </c>
       <c r="B64" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>6</v>
+        <v>502</v>
       </c>
       <c r="F64" t="n">
-        <v>2448</v>
+        <v>337961</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1473438</v>
       </c>
       <c r="J64" t="b">
         <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>2279114</v>
+        <v>1282456</v>
       </c>
       <c r="L64" t="n">
-        <v>2352738</v>
+        <v>1471867</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N64" t="n">
-        <v>2126697</v>
+        <v>84698252</v>
       </c>
       <c r="O64" t="n">
-        <v>4</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" t="n">
-        <v>3316</v>
+        <v>3202</v>
       </c>
       <c r="B65" t="n">
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D65" t="n">
         <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>523</v>
+        <v>82</v>
       </c>
       <c r="F65" t="n">
-        <v>2401085</v>
+        <v>134732</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>546593</v>
+        <v>2258385</v>
       </c>
       <c r="J65" t="b">
         <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>346748</v>
+        <v>2258391</v>
       </c>
       <c r="L65" t="n">
-        <v>886783</v>
+        <v>2266042</v>
       </c>
       <c r="M65" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N65" t="n">
-        <v>102895213</v>
+        <v>42574364</v>
       </c>
       <c r="O65" t="n">
-        <v>181</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="n">
-        <v>3285</v>
+        <v>3197</v>
       </c>
       <c r="B66" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>2341</v>
+        <v>51</v>
       </c>
       <c r="F66" t="n">
-        <v>1482286</v>
+        <v>155860</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>2289845</v>
+        <v>2062713</v>
       </c>
       <c r="J66" t="b">
         <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>780450</v>
+        <v>2119810</v>
       </c>
       <c r="L66" t="n">
-        <v>874313</v>
+        <v>2052324</v>
       </c>
       <c r="M66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N66" t="n">
-        <v>103230803</v>
+        <v>70181840</v>
       </c>
       <c r="O66" t="n">
-        <v>432</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" t="n">
-        <v>3281</v>
+        <v>3191</v>
       </c>
       <c r="B67" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>151</v>
+        <v>269</v>
       </c>
       <c r="F67" t="n">
-        <v>235174</v>
+        <v>512193</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>299719</v>
+        <v>2199823</v>
       </c>
       <c r="J67" t="b">
         <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>104873</v>
+        <v>1976278</v>
       </c>
       <c r="L67" t="n">
-        <v>920515</v>
+        <v>899574</v>
       </c>
       <c r="M67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N67" t="n">
-        <v>101894238</v>
+        <v>106857577</v>
       </c>
       <c r="O67" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="n">
-        <v>3280</v>
+        <v>3190</v>
       </c>
       <c r="B68" t="n">
         <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D68" t="n">
         <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="F68" t="n">
-        <v>145742</v>
+        <v>326260</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>480579</v>
       </c>
       <c r="J68" t="b">
         <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>810983</v>
+        <v>1021598</v>
       </c>
       <c r="L68" t="n">
-        <v>2222510</v>
+        <v>875150</v>
       </c>
       <c r="M68" t="n">
         <v>7</v>
       </c>
       <c r="N68" t="n">
-        <v>47438371</v>
+        <v>107562353</v>
       </c>
       <c r="O68" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" t="n">
-        <v>3273</v>
+        <v>3121</v>
       </c>
       <c r="B69" t="n">
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="F69" t="n">
-        <v>563390</v>
+        <v>42964</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>68233</v>
+        <v>0</v>
       </c>
       <c r="J69" t="b">
         <v>1</v>
       </c>
       <c r="K69" t="n">
-        <v>394030</v>
+        <v>2284467</v>
       </c>
       <c r="L69" t="n">
-        <v>875820</v>
+        <v>2318778</v>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N69" t="n">
-        <v>103203061</v>
+        <v>27984952</v>
       </c>
       <c r="O69" t="n">
-        <v>148</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" t="n">
-        <v>3263</v>
+        <v>3120</v>
       </c>
       <c r="B70" t="n">
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D70" t="n">
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F70" t="n">
-        <v>201971</v>
+        <v>300208</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>559759</v>
       </c>
       <c r="J70" t="b">
         <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>904547</v>
+        <v>2227652</v>
       </c>
       <c r="L70" t="n">
-        <v>1343677</v>
+        <v>988869</v>
       </c>
       <c r="M70" t="n">
         <v>2</v>
       </c>
       <c r="N70" t="n">
-        <v>85405138</v>
+        <v>101887313</v>
       </c>
       <c r="O70" t="n">
-        <v>193</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="n">
-        <v>3228</v>
+        <v>3100</v>
       </c>
       <c r="B71" t="n">
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D71" t="n">
         <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>314127</v>
+        <v>14796</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>480579</v>
+        <v>2351153</v>
       </c>
       <c r="J71" t="b">
         <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>1021598</v>
+        <v>434561</v>
       </c>
       <c r="L71" t="n">
-        <v>875150</v>
+        <v>2351275</v>
       </c>
       <c r="M71" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N71" t="n">
-        <v>103216561</v>
+        <v>9403405</v>
       </c>
       <c r="O71" t="n">
-        <v>196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" t="n">
-        <v>3220</v>
+        <v>3093</v>
       </c>
       <c r="B72" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D72" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" t="n">
+        <v>374</v>
+      </c>
+      <c r="F72" t="n">
+        <v>118203</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>206884</v>
+      </c>
+      <c r="J72" t="b">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1459490</v>
+      </c>
+      <c r="L72" t="n">
+        <v>2259446</v>
+      </c>
+      <c r="M72" t="n">
         <v>3</v>
       </c>
-      <c r="E72" t="n">
-        <v>251</v>
-      </c>
-      <c r="F72" t="n">
-        <v>281441</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1976173</v>
-      </c>
-      <c r="J72" t="b">
-        <v>1</v>
-      </c>
-      <c r="K72" t="n">
-        <v>1614280</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1053262</v>
-      </c>
-      <c r="M72" t="n">
-        <v>9</v>
-      </c>
       <c r="N72" t="n">
-        <v>94827750</v>
+        <v>43892437</v>
       </c>
       <c r="O72" t="n">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="n">
-        <v>3219</v>
+        <v>3091</v>
       </c>
       <c r="B73" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="F73" t="n">
-        <v>64951</v>
+        <v>86779</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>1337644</v>
+        <v>2302559</v>
       </c>
       <c r="J73" t="b">
         <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>1065279</v>
+        <v>644957</v>
       </c>
       <c r="L73" t="n">
-        <v>2265323</v>
+        <v>2305215</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="n">
-        <v>38345342</v>
+        <v>32169177</v>
       </c>
       <c r="O73" t="n">
-        <v>77</v>
+        <v>441</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="n">
-        <v>3211</v>
+        <v>3000</v>
       </c>
       <c r="B74" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>92829</v>
+        <v>20879</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>1490027</v>
+        <v>1279545</v>
       </c>
       <c r="J74" t="b">
         <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>2179683</v>
+        <v>571255</v>
       </c>
       <c r="L74" t="n">
-        <v>2258736</v>
+        <v>2325425</v>
       </c>
       <c r="M74" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N74" t="n">
-        <v>39717653</v>
+        <v>25581625</v>
       </c>
       <c r="O74" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" t="n">
-        <v>3211</v>
+        <v>3000</v>
       </c>
       <c r="B75" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>113258</v>
+        <v>104035</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>206884</v>
+        <v>0</v>
       </c>
       <c r="J75" t="b">
         <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>1459490</v>
+        <v>20896</v>
       </c>
       <c r="L75" t="n">
-        <v>2259446</v>
+        <v>875714</v>
       </c>
       <c r="M75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N75" t="n">
-        <v>39546645</v>
+        <v>107552440</v>
       </c>
       <c r="O75" t="n">
-        <v>249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="n">
-        <v>3209</v>
+        <v>3000</v>
       </c>
       <c r="B76" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>191636</v>
+        <v>10178</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>1325667</v>
+        <v>597363</v>
       </c>
       <c r="J76" t="b">
         <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>889122</v>
+        <v>2222440</v>
       </c>
       <c r="L76" t="n">
-        <v>1814278</v>
+        <v>2353765</v>
       </c>
       <c r="M76" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N76" t="n">
-        <v>72743325</v>
+        <v>4408376</v>
       </c>
       <c r="O76" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" t="n">
-        <v>3195</v>
+        <v>3000</v>
       </c>
       <c r="B77" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>77802</v>
+        <v>8437</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>2302559</v>
+        <v>0</v>
       </c>
       <c r="J77" t="b">
         <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>644957</v>
+        <v>2352169</v>
       </c>
       <c r="L77" t="n">
-        <v>2305215</v>
+        <v>2353863</v>
       </c>
       <c r="M77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N77" t="n">
-        <v>27823385</v>
+        <v>4211704</v>
       </c>
       <c r="O77" t="n">
-        <v>407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" t="n">
-        <v>3191</v>
+        <v>3000</v>
       </c>
       <c r="B78" t="n">
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>506680</v>
+        <v>10683</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>2199823</v>
+        <v>0</v>
       </c>
       <c r="J78" t="b">
         <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>1976278</v>
+        <v>2116497</v>
       </c>
       <c r="L78" t="n">
-        <v>899574</v>
+        <v>2351331</v>
       </c>
       <c r="M78" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N78" t="n">
-        <v>102511785</v>
+        <v>9313228</v>
       </c>
       <c r="O78" t="n">
-        <v>193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" t="n">
-        <v>3151</v>
+        <v>3000</v>
       </c>
       <c r="B79" t="n">
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>393870</v>
+        <v>2956</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1143088</v>
+        <v>0</v>
       </c>
       <c r="J79" t="b">
         <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>1313779</v>
+        <v>2284247</v>
       </c>
       <c r="L79" t="n">
-        <v>875261</v>
+        <v>2354355</v>
       </c>
       <c r="M79" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
-        <v>103214602</v>
+        <v>3022282</v>
       </c>
       <c r="O79" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" t="n">
-        <v>3137</v>
+        <v>3000</v>
       </c>
       <c r="B80" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>132912</v>
+        <v>12448</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1666548</v>
+        <v>0</v>
       </c>
       <c r="J80" t="b">
         <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>1654863</v>
+        <v>2349572</v>
       </c>
       <c r="L80" t="n">
-        <v>2179201</v>
+        <v>2352711</v>
       </c>
       <c r="M80" t="n">
         <v>2</v>
       </c>
       <c r="N80" t="n">
-        <v>54499521</v>
+        <v>6506406</v>
       </c>
       <c r="O80" t="n">
-        <v>509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" t="n">
-        <v>3121</v>
+        <v>2997</v>
       </c>
       <c r="B81" t="n">
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>35810</v>
+        <v>3626</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
@@ -4323,435 +4278,435 @@
         <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>2284467</v>
+        <v>772397</v>
       </c>
       <c r="L81" t="n">
-        <v>2318778</v>
+        <v>2354368</v>
       </c>
       <c r="M81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N81" t="n">
-        <v>23639160</v>
+        <v>3000685</v>
       </c>
       <c r="O81" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" t="n">
-        <v>3120</v>
+        <v>2990</v>
       </c>
       <c r="B82" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F82" t="n">
-        <v>294222</v>
+        <v>104060</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>559759</v>
+        <v>0</v>
       </c>
       <c r="J82" t="b">
         <v>1</v>
       </c>
       <c r="K82" t="n">
-        <v>2227652</v>
+        <v>1851427</v>
       </c>
       <c r="L82" t="n">
-        <v>988869</v>
+        <v>2287901</v>
       </c>
       <c r="M82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N82" t="n">
-        <v>97541521</v>
+        <v>37440939</v>
       </c>
       <c r="O82" t="n">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" t="n">
-        <v>3114</v>
+        <v>2974</v>
       </c>
       <c r="B83" t="n">
         <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="D83" t="n">
         <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="F83" t="n">
-        <v>26589</v>
+        <v>65074</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>2335787</v>
+        <v>1211600</v>
       </c>
       <c r="J83" t="b">
         <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>2291323</v>
+        <v>2302307</v>
       </c>
       <c r="L83" t="n">
-        <v>2345393</v>
+        <v>2316470</v>
       </c>
       <c r="M83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N83" t="n">
-        <v>12421571</v>
+        <v>28869639</v>
       </c>
       <c r="O83" t="n">
-        <v>65</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" t="n">
-        <v>3110</v>
+        <v>2966</v>
       </c>
       <c r="B84" t="n">
         <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D84" t="n">
         <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F84" t="n">
-        <v>155457</v>
+        <v>273739</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>2062713</v>
+        <v>0</v>
       </c>
       <c r="J84" t="b">
         <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>2119810</v>
+        <v>1727965</v>
       </c>
       <c r="L84" t="n">
-        <v>2052324</v>
+        <v>1016877</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="n">
-        <v>65836048</v>
+        <v>99787391</v>
       </c>
       <c r="O84" t="n">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" t="n">
-        <v>3105</v>
+        <v>2950</v>
       </c>
       <c r="B85" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>3456</v>
+        <v>39481</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>107133</v>
       </c>
       <c r="J85" t="b">
         <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>674054</v>
+        <v>540962</v>
       </c>
       <c r="L85" t="n">
-        <v>2352011</v>
+        <v>2352866</v>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N85" t="n">
-        <v>3752365</v>
+        <v>6245606</v>
       </c>
       <c r="O85" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" t="n">
-        <v>3089</v>
+        <v>2937</v>
       </c>
       <c r="B86" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
         <v>11</v>
       </c>
-      <c r="E86" t="n">
-        <v>906</v>
-      </c>
       <c r="F86" t="n">
-        <v>3058394</v>
+        <v>14985</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1100961</v>
       </c>
       <c r="J86" t="b">
         <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>2300566</v>
+        <v>49509</v>
       </c>
       <c r="L86" t="n">
-        <v>876211</v>
+        <v>2348702</v>
       </c>
       <c r="M86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N86" t="n">
-        <v>103163906</v>
+        <v>13110786</v>
       </c>
       <c r="O86" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" t="n">
-        <v>3077</v>
+        <v>2920</v>
       </c>
       <c r="B87" t="n">
         <v>5</v>
       </c>
       <c r="C87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>60</v>
+      </c>
+      <c r="F87" t="n">
+        <v>137362</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J87" t="b">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2114593</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2166084</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="n">
+        <v>61055870</v>
+      </c>
+      <c r="O87" t="n">
         <v>127</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1</v>
-      </c>
-      <c r="E87" t="n">
-        <v>195</v>
-      </c>
-      <c r="F87" t="n">
-        <v>258378</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1215481</v>
-      </c>
-      <c r="J87" t="b">
-        <v>1</v>
-      </c>
-      <c r="K87" t="n">
-        <v>675781</v>
-      </c>
-      <c r="L87" t="n">
-        <v>1969189</v>
-      </c>
-      <c r="M87" t="n">
-        <v>5</v>
-      </c>
-      <c r="N87" t="n">
-        <v>68325965</v>
-      </c>
-      <c r="O87" t="n">
-        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" t="n">
-        <v>3062</v>
+        <v>2905</v>
       </c>
       <c r="B88" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E88" t="n">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
-        <v>56438</v>
+        <v>1988160</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>1211600</v>
+        <v>402191</v>
       </c>
       <c r="J88" t="b">
         <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>2302307</v>
+        <v>922447</v>
       </c>
       <c r="L88" t="n">
-        <v>2316470</v>
+        <v>888745</v>
       </c>
       <c r="M88" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N88" t="n">
-        <v>24523847</v>
+        <v>107214482</v>
       </c>
       <c r="O88" t="n">
-        <v>318</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" t="n">
-        <v>3049</v>
+        <v>2905</v>
       </c>
       <c r="B89" t="n">
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>139053</v>
+        <v>135174</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>1163520</v>
+        <v>0</v>
       </c>
       <c r="J89" t="b">
         <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>576189</v>
+        <v>253422</v>
       </c>
       <c r="L89" t="n">
-        <v>878765</v>
+        <v>882996</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="n">
-        <v>103091513</v>
+        <v>107322215</v>
       </c>
       <c r="O89" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" t="n">
-        <v>3006</v>
+        <v>2880</v>
       </c>
       <c r="B90" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="F90" t="n">
-        <v>93453</v>
+        <v>154963</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2163869</v>
       </c>
       <c r="J90" t="b">
         <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>1851427</v>
+        <v>347197</v>
       </c>
       <c r="L90" t="n">
-        <v>2287901</v>
+        <v>876063</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="n">
-        <v>33095147</v>
+        <v>107525446</v>
       </c>
       <c r="O90" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" t="n">
-        <v>3000</v>
+        <v>2879</v>
       </c>
       <c r="B91" t="n">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>1127</v>
       </c>
       <c r="F91" t="n">
-        <v>17241</v>
+        <v>4456254</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
@@ -4763,30 +4718,30 @@
         <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>1279545</v>
+        <v>2346192</v>
       </c>
       <c r="L91" t="n">
-        <v>2325425</v>
+        <v>878291</v>
       </c>
       <c r="M91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N91" t="n">
-        <v>21235833</v>
+        <v>107466811</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>485</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" t="n">
-        <v>3000</v>
+        <v>2865</v>
       </c>
       <c r="B92" t="n">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -4795,403 +4750,403 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>101157</v>
+        <v>18184</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>570158</v>
       </c>
       <c r="J92" t="b">
         <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>20896</v>
+        <v>1272105</v>
       </c>
       <c r="L92" t="n">
-        <v>875714</v>
+        <v>2325434</v>
       </c>
       <c r="M92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N92" t="n">
-        <v>103206648</v>
+        <v>25580084</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" t="n">
-        <v>3000</v>
+        <v>2838</v>
       </c>
       <c r="B93" t="n">
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F93" t="n">
-        <v>387</v>
+        <v>44761</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>597363</v>
+        <v>1379020</v>
       </c>
       <c r="J93" t="b">
         <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>2222440</v>
+        <v>2228530</v>
       </c>
       <c r="L93" t="n">
-        <v>2353765</v>
+        <v>2319412</v>
       </c>
       <c r="M93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N93" t="n">
-        <v>62584</v>
+        <v>27662232</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" t="n">
-        <v>3000</v>
+        <v>2814</v>
       </c>
       <c r="B94" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>8638</v>
+        <v>133851</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1129378</v>
       </c>
       <c r="J94" t="b">
         <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>434561</v>
+        <v>1135850</v>
       </c>
       <c r="L94" t="n">
-        <v>2351275</v>
+        <v>2274409</v>
       </c>
       <c r="M94" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N94" t="n">
-        <v>5057613</v>
+        <v>40762208</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" t="n">
-        <v>3000</v>
+        <v>2764</v>
       </c>
       <c r="B95" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C95" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F95" t="n">
-        <v>7724</v>
+        <v>1794187</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1625488</v>
       </c>
       <c r="J95" t="b">
         <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>2116497</v>
+        <v>277622</v>
       </c>
       <c r="L95" t="n">
-        <v>2351331</v>
+        <v>986990</v>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="N95" t="n">
-        <v>4967436</v>
+        <v>102054618</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" t="n">
-        <v>3000</v>
+        <v>2747</v>
       </c>
       <c r="B96" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F96" t="n">
-        <v>7809</v>
+        <v>328195</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>2291351</v>
+        <v>953540</v>
       </c>
       <c r="J96" t="b">
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>2349565</v>
+        <v>668011</v>
       </c>
       <c r="L96" t="n">
-        <v>2352711</v>
+        <v>1313131</v>
       </c>
       <c r="M96" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N96" t="n">
-        <v>2160614</v>
+        <v>91037605</v>
       </c>
       <c r="O96" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" t="n">
-        <v>2991</v>
+        <v>2692</v>
       </c>
       <c r="B97" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F97" t="n">
-        <v>12390</v>
+        <v>197992</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>107133</v>
+        <v>1538294</v>
       </c>
       <c r="J97" t="b">
         <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>540962</v>
+        <v>991069</v>
       </c>
       <c r="L97" t="n">
-        <v>2352866</v>
+        <v>1061224</v>
       </c>
       <c r="M97" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N97" t="n">
-        <v>1899814</v>
+        <v>99012008</v>
       </c>
       <c r="O97" t="n">
-        <v>3</v>
+        <v>526</v>
       </c>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" t="n">
-        <v>2979</v>
+        <v>2677</v>
       </c>
       <c r="B98" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="F98" t="n">
-        <v>265153</v>
+        <v>299059</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1727965</v>
+        <v>2283462</v>
       </c>
       <c r="J98" t="b">
         <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>304350</v>
+        <v>23187</v>
       </c>
       <c r="L98" t="n">
-        <v>1016877</v>
+        <v>987201</v>
       </c>
       <c r="M98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N98" t="n">
-        <v>95441599</v>
+        <v>102040389</v>
       </c>
       <c r="O98" t="n">
-        <v>164</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" t="n">
-        <v>2971</v>
+        <v>2586</v>
       </c>
       <c r="B99" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C99" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F99" t="n">
-        <v>26130</v>
+        <v>432820</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>48044</v>
+        <v>2084366</v>
       </c>
       <c r="J99" t="b">
         <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>47319</v>
+        <v>1974002</v>
       </c>
       <c r="L99" t="n">
-        <v>2313614</v>
+        <v>895696</v>
       </c>
       <c r="M99" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N99" t="n">
-        <v>25440043</v>
+        <v>106967134</v>
       </c>
       <c r="O99" t="n">
-        <v>5</v>
+        <v>562</v>
       </c>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" t="n">
-        <v>2961</v>
+        <v>2563</v>
       </c>
       <c r="B100" t="n">
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="D100" t="n">
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F100" t="n">
-        <v>166439</v>
+        <v>208533</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>1002774</v>
+        <v>525164</v>
       </c>
       <c r="J100" t="b">
         <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>233279</v>
+        <v>150283</v>
       </c>
       <c r="L100" t="n">
-        <v>1412909</v>
+        <v>1005465</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="n">
-        <v>82401586</v>
+        <v>100495827</v>
       </c>
       <c r="O100" t="n">
-        <v>90</v>
+        <v>719</v>
       </c>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" t="n">
-        <v>2944</v>
+        <v>2124</v>
       </c>
       <c r="B101" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E101" t="n">
-        <v>1127</v>
+        <v>7</v>
       </c>
       <c r="F101" t="n">
-        <v>4455874</v>
+        <v>301318</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
@@ -5203,19 +5158,19 @@
         <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>2346192</v>
+        <v>1007302</v>
       </c>
       <c r="L101" t="n">
-        <v>878291</v>
+        <v>899506</v>
       </c>
       <c r="M101" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N101" t="n">
-        <v>103121019</v>
+        <v>106859358</v>
       </c>
       <c r="O101" t="n">
-        <v>474</v>
+        <v>311</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -5226,7 +5181,7 @@
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
@@ -5237,13 +5192,13 @@
       <c r="F102" t="n">
         <v>10883</v>
       </c>
-      <c r="G102" t="b">
+      <c r="G102" t="n">
         <v>0</v>
       </c>
       <c r="H102" t="n">
         <v>1100961</v>
       </c>
-      <c r="J102" t="b">
+      <c r="J102" t="n">
         <v>1</v>
       </c>
       <c r="K102" t="n">
@@ -5270,7 +5225,7 @@
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D103" t="n">
         <v>1</v>
@@ -5281,13 +5236,13 @@
       <c r="F103" t="n">
         <v>187701</v>
       </c>
-      <c r="G103" t="b">
+      <c r="G103" t="n">
         <v>0</v>
       </c>
       <c r="H103" t="n">
         <v>420568</v>
       </c>
-      <c r="J103" t="b">
+      <c r="J103" t="n">
         <v>1</v>
       </c>
       <c r="K103" t="n">
@@ -5314,7 +5269,7 @@
         <v>30</v>
       </c>
       <c r="C104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D104" t="n">
         <v>6</v>
@@ -5325,13 +5280,13 @@
       <c r="F104" t="n">
         <v>1874180</v>
       </c>
-      <c r="G104" t="b">
+      <c r="G104" t="n">
         <v>0</v>
       </c>
       <c r="H104" t="n">
         <v>402191</v>
       </c>
-      <c r="J104" t="b">
+      <c r="J104" t="n">
         <v>1</v>
       </c>
       <c r="K104" t="n">
@@ -5358,7 +5313,7 @@
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -5369,13 +5324,13 @@
       <c r="F105" t="n">
         <v>124147</v>
       </c>
-      <c r="G105" t="b">
+      <c r="G105" t="n">
         <v>0</v>
       </c>
       <c r="H105" t="n">
         <v>-1</v>
       </c>
-      <c r="J105" t="b">
+      <c r="J105" t="n">
         <v>1</v>
       </c>
       <c r="K105" t="n">
@@ -5402,7 +5357,7 @@
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -5413,13 +5368,13 @@
       <c r="F106" t="n">
         <v>133251</v>
       </c>
-      <c r="G106" t="b">
+      <c r="G106" t="n">
         <v>0</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="b">
+      <c r="J106" t="n">
         <v>1</v>
       </c>
       <c r="K106" t="n">
@@ -5446,7 +5401,7 @@
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
@@ -5457,13 +5412,13 @@
       <c r="F107" t="n">
         <v>153258</v>
       </c>
-      <c r="G107" t="b">
+      <c r="G107" t="n">
         <v>0</v>
       </c>
       <c r="H107" t="n">
         <v>2163869</v>
       </c>
-      <c r="J107" t="b">
+      <c r="J107" t="n">
         <v>1</v>
       </c>
       <c r="K107" t="n">
@@ -5490,7 +5445,7 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
@@ -5501,13 +5456,13 @@
       <c r="F108" t="n">
         <v>16660</v>
       </c>
-      <c r="G108" t="b">
+      <c r="G108" t="n">
         <v>0</v>
       </c>
       <c r="H108" t="n">
         <v>570158</v>
       </c>
-      <c r="J108" t="b">
+      <c r="J108" t="n">
         <v>1</v>
       </c>
       <c r="K108" t="n">
@@ -5534,7 +5489,7 @@
         <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
@@ -5545,13 +5500,13 @@
       <c r="F109" t="n">
         <v>126903</v>
       </c>
-      <c r="G109" t="b">
+      <c r="G109" t="n">
         <v>0</v>
       </c>
       <c r="H109" t="n">
         <v>1129378</v>
       </c>
-      <c r="J109" t="b">
+      <c r="J109" t="n">
         <v>1</v>
       </c>
       <c r="K109" t="n">
@@ -5578,7 +5533,7 @@
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -5589,13 +5544,13 @@
       <c r="F110" t="n">
         <v>41210</v>
       </c>
-      <c r="G110" t="b">
+      <c r="G110" t="n">
         <v>0</v>
       </c>
       <c r="H110" t="n">
         <v>1379020</v>
       </c>
-      <c r="J110" t="b">
+      <c r="J110" t="n">
         <v>1</v>
       </c>
       <c r="K110" t="n">
@@ -5622,7 +5577,7 @@
         <v>35</v>
       </c>
       <c r="C111" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D111" t="n">
         <v>7</v>
@@ -5633,13 +5588,13 @@
       <c r="F111" t="n">
         <v>1681090</v>
       </c>
-      <c r="G111" t="b">
+      <c r="G111" t="n">
         <v>0</v>
       </c>
       <c r="H111" t="n">
         <v>1625488</v>
       </c>
-      <c r="J111" t="b">
+      <c r="J111" t="n">
         <v>1</v>
       </c>
       <c r="K111" t="n">
@@ -5666,7 +5621,7 @@
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D112" t="n">
         <v>2</v>
@@ -5677,13 +5632,13 @@
       <c r="F112" t="n">
         <v>318260</v>
       </c>
-      <c r="G112" t="b">
+      <c r="G112" t="n">
         <v>0</v>
       </c>
       <c r="H112" t="n">
         <v>953540</v>
       </c>
-      <c r="J112" t="b">
+      <c r="J112" t="n">
         <v>1</v>
       </c>
       <c r="K112" t="n">
@@ -5710,7 +5665,7 @@
         <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -5721,13 +5676,13 @@
       <c r="F113" t="n">
         <v>192127</v>
       </c>
-      <c r="G113" t="b">
+      <c r="G113" t="n">
         <v>0</v>
       </c>
       <c r="H113" t="n">
         <v>1538294</v>
       </c>
-      <c r="J113" t="b">
+      <c r="J113" t="n">
         <v>1</v>
       </c>
       <c r="K113" t="n">
@@ -5754,7 +5709,7 @@
         <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
@@ -5765,13 +5720,13 @@
       <c r="F114" t="n">
         <v>290769</v>
       </c>
-      <c r="G114" t="b">
+      <c r="G114" t="n">
         <v>0</v>
       </c>
       <c r="H114" t="n">
         <v>2283462</v>
       </c>
-      <c r="J114" t="b">
+      <c r="J114" t="n">
         <v>1</v>
       </c>
       <c r="K114" t="n">
@@ -5798,7 +5753,7 @@
         <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D115" t="n">
         <v>4</v>
@@ -5809,13 +5764,13 @@
       <c r="F115" t="n">
         <v>430738</v>
       </c>
-      <c r="G115" t="b">
+      <c r="G115" t="n">
         <v>0</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="b">
+      <c r="J115" t="n">
         <v>1</v>
       </c>
       <c r="K115" t="n">
@@ -5842,7 +5797,7 @@
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
@@ -5853,13 +5808,13 @@
       <c r="F116" t="n">
         <v>205335</v>
       </c>
-      <c r="G116" t="b">
+      <c r="G116" t="n">
         <v>0</v>
       </c>
       <c r="H116" t="n">
         <v>525164</v>
       </c>
-      <c r="J116" t="b">
+      <c r="J116" t="n">
         <v>1</v>
       </c>
       <c r="K116" t="n">
@@ -5886,7 +5841,7 @@
         <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -5897,13 +5852,13 @@
       <c r="F117" t="n">
         <v>180321</v>
       </c>
-      <c r="G117" t="b">
+      <c r="G117" t="n">
         <v>0</v>
       </c>
       <c r="H117" t="n">
         <v>421769</v>
       </c>
-      <c r="J117" t="b">
+      <c r="J117" t="n">
         <v>1</v>
       </c>
       <c r="K117" t="n">
@@ -5930,7 +5885,7 @@
         <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D118" t="n">
         <v>2</v>
@@ -5941,13 +5896,13 @@
       <c r="F118" t="n">
         <v>301318</v>
       </c>
-      <c r="G118" t="b">
+      <c r="G118" t="n">
         <v>0</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="b">
+      <c r="J118" t="n">
         <v>1</v>
       </c>
       <c r="K118" t="n">
